--- a/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
@@ -825,18 +825,36 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -844,9 +862,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,21 +869,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1219,10 +1219,10 @@
       <c r="B1" s="2">
         <v>250000</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="104"/>
+      <c r="D1" s="110"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -1365,14 +1365,14 @@
     <row r="2" spans="1:147" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -1505,46 +1505,46 @@
       <c r="EQ2" s="7"/>
     </row>
     <row r="3" spans="1:147" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="106" t="s">
+      <c r="H3" s="114"/>
+      <c r="I3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106" t="s">
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106" t="s">
+      <c r="N3" s="102"/>
+      <c r="O3" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="110" t="s">
+      <c r="P3" s="102"/>
+      <c r="Q3" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="100" t="s">
+      <c r="R3" s="108" t="s">
         <v>47</v>
       </c>
       <c r="S3" s="7"/>
@@ -1678,12 +1678,12 @@
       <c r="EQ3" s="7"/>
     </row>
     <row r="4" spans="1:147" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="108"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="113"/>
       <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
@@ -1714,8 +1714,8 @@
       <c r="P4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="101"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="109"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -2982,13 +2982,13 @@
       <c r="EQ11" s="27"/>
     </row>
     <row r="12" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="100" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="101">
         <v>2</v>
       </c>
       <c r="D12" s="62">
@@ -3167,11 +3167,11 @@
       <c r="EQ12" s="7"/>
     </row>
     <row r="13" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="102"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="62">
         <v>14400</v>
       </c>
@@ -3348,9 +3348,9 @@
       <c r="EQ13" s="7"/>
     </row>
     <row r="14" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="102"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="103"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="62"/>
       <c r="E14" s="70"/>
       <c r="F14" s="42"/>
@@ -3497,13 +3497,13 @@
       <c r="EQ14" s="7"/>
     </row>
     <row r="15" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="104" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="113">
+      <c r="C15" s="106">
         <v>2</v>
       </c>
       <c r="D15" s="35">
@@ -3682,11 +3682,11 @@
       <c r="EQ15" s="7"/>
     </row>
     <row r="16" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="112"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="114"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="35">
         <v>22100</v>
       </c>
@@ -3861,13 +3861,13 @@
       <c r="EQ16" s="7"/>
     </row>
     <row r="17" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="100" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="103">
+      <c r="C17" s="101">
         <v>5</v>
       </c>
       <c r="D17" s="62">
@@ -4044,11 +4044,11 @@
       <c r="EQ17" s="7"/>
     </row>
     <row r="18" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="102"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="62">
         <v>22100</v>
       </c>
@@ -4223,11 +4223,11 @@
       <c r="EQ18" s="7"/>
     </row>
     <row r="19" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="103"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="62">
         <v>22100</v>
       </c>
@@ -4399,11 +4399,11 @@
       <c r="EQ19" s="7"/>
     </row>
     <row r="20" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="102"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="103"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="62">
         <v>22100</v>
       </c>
@@ -4580,11 +4580,11 @@
       <c r="EQ20" s="7"/>
     </row>
     <row r="21" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="103"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="62">
         <v>22100</v>
       </c>
@@ -5836,13 +5836,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="C12:C14"/>
@@ -5856,6 +5849,13 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:L3"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5868,10 +5868,10 @@
   <dimension ref="A1:ES21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6054,18 +6054,18 @@
       <c r="B2" s="5">
         <v>168</v>
       </c>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -6198,36 +6198,36 @@
       <c r="ES2" s="7"/>
     </row>
     <row r="3" spans="1:149" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="106" t="s">
+      <c r="F3" s="114"/>
+      <c r="G3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106" t="s">
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106" t="s">
+      <c r="L3" s="102"/>
+      <c r="M3" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="106"/>
+      <c r="N3" s="102"/>
       <c r="O3" s="115" t="s">
         <v>55</v>
       </c>
@@ -6236,10 +6236,10 @@
         <v>52</v>
       </c>
       <c r="R3" s="116"/>
-      <c r="S3" s="110" t="s">
+      <c r="S3" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="100" t="s">
+      <c r="T3" s="108" t="s">
         <v>47</v>
       </c>
       <c r="U3" s="7"/>
@@ -6373,10 +6373,10 @@
       <c r="ES3" s="7"/>
     </row>
     <row r="4" spans="1:149" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="108"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="66" t="s">
         <v>13</v>
       </c>
@@ -6419,8 +6419,8 @@
       <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="110"/>
-      <c r="T4" s="101"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="109"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -6906,11 +6906,12 @@
         <v>6.88</v>
       </c>
       <c r="C7" s="70">
-        <v>200</v>
+        <f>11.25*12</f>
+        <v>135</v>
       </c>
       <c r="D7" s="83">
         <f>SUM(C7*B7)</f>
-        <v>1376</v>
+        <v>928.8</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="88">
@@ -6926,7 +6927,7 @@
       </c>
       <c r="L7" s="99">
         <f t="shared" ref="L7:L8" si="6">SUM($A$1*C7*K7/100)</f>
-        <v>5</v>
+        <v>3.375</v>
       </c>
       <c r="M7" s="99"/>
       <c r="N7" s="89">
@@ -6938,20 +6939,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="76">
-        <v>20</v>
-      </c>
+      <c r="Q7" s="76"/>
       <c r="R7" s="86">
         <f t="shared" si="2"/>
-        <v>137.6</v>
+        <v>0</v>
       </c>
       <c r="S7" s="92">
         <f t="shared" si="3"/>
-        <v>1518.6</v>
+        <v>932.17499999999995</v>
       </c>
       <c r="T7" s="91">
         <f t="shared" si="4"/>
-        <v>1306</v>
+        <v>802</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -8991,7 +8990,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="49">
         <f>SUM(D5:D18)</f>
-        <v>14075.34</v>
+        <v>13628.14</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49">
@@ -9017,7 +9016,7 @@
       <c r="K19" s="48"/>
       <c r="L19" s="49">
         <f>SUM(L5:L18)</f>
-        <v>49.4375</v>
+        <v>47.8125</v>
       </c>
       <c r="M19" s="48"/>
       <c r="N19" s="49">
@@ -9030,11 +9029,11 @@
       <c r="R19" s="72"/>
       <c r="S19" s="50">
         <f>SUM(S5:S18)</f>
-        <v>15336.097500000002</v>
+        <v>14749.672500000001</v>
       </c>
       <c r="T19" s="51">
         <f>SUM(T5:T18)</f>
-        <v>13187</v>
+        <v>12683</v>
       </c>
       <c r="U19" s="52"/>
       <c r="V19" s="52"/>

--- a/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
@@ -825,15 +825,36 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -848,27 +869,6 @@
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1219,10 +1219,10 @@
       <c r="B1" s="2">
         <v>250000</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="110"/>
+      <c r="D1" s="104"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -1365,14 +1365,14 @@
     <row r="2" spans="1:147" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -1505,46 +1505,46 @@
       <c r="EQ2" s="7"/>
     </row>
     <row r="3" spans="1:147" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="114"/>
-      <c r="I3" s="102" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102" t="s">
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102" t="s">
+      <c r="N3" s="106"/>
+      <c r="O3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="103" t="s">
+      <c r="P3" s="106"/>
+      <c r="Q3" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="108" t="s">
+      <c r="R3" s="100" t="s">
         <v>47</v>
       </c>
       <c r="S3" s="7"/>
@@ -1678,12 +1678,12 @@
       <c r="EQ3" s="7"/>
     </row>
     <row r="4" spans="1:147" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="102"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="113"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
@@ -1714,8 +1714,8 @@
       <c r="P4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="109"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="101"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -2982,13 +2982,13 @@
       <c r="EQ11" s="27"/>
     </row>
     <row r="12" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="102" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="103">
         <v>2</v>
       </c>
       <c r="D12" s="62">
@@ -3167,11 +3167,11 @@
       <c r="EQ12" s="7"/>
     </row>
     <row r="13" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="100"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="101"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="62">
         <v>14400</v>
       </c>
@@ -3348,9 +3348,9 @@
       <c r="EQ13" s="7"/>
     </row>
     <row r="14" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
+      <c r="A14" s="102"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="101"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="62"/>
       <c r="E14" s="70"/>
       <c r="F14" s="42"/>
@@ -3497,13 +3497,13 @@
       <c r="EQ14" s="7"/>
     </row>
     <row r="15" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="111" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="106">
+      <c r="C15" s="113">
         <v>2</v>
       </c>
       <c r="D15" s="35">
@@ -3682,11 +3682,11 @@
       <c r="EQ15" s="7"/>
     </row>
     <row r="16" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="105"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="107"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="35">
         <v>22100</v>
       </c>
@@ -3861,13 +3861,13 @@
       <c r="EQ16" s="7"/>
     </row>
     <row r="17" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="102" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="103">
         <v>5</v>
       </c>
       <c r="D17" s="62">
@@ -4044,11 +4044,11 @@
       <c r="EQ17" s="7"/>
     </row>
     <row r="18" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="100"/>
+      <c r="A18" s="102"/>
       <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="101"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="62">
         <v>22100</v>
       </c>
@@ -4223,11 +4223,11 @@
       <c r="EQ18" s="7"/>
     </row>
     <row r="19" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="101"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="62">
         <v>22100</v>
       </c>
@@ -4399,11 +4399,11 @@
       <c r="EQ19" s="7"/>
     </row>
     <row r="20" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="101"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="62">
         <v>22100</v>
       </c>
@@ -4580,11 +4580,11 @@
       <c r="EQ20" s="7"/>
     </row>
     <row r="21" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="101"/>
+      <c r="C21" s="103"/>
       <c r="D21" s="62">
         <v>22100</v>
       </c>
@@ -5836,6 +5836,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="C12:C14"/>
@@ -5849,13 +5856,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:L3"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5871,7 +5871,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6054,18 +6054,18 @@
       <c r="B2" s="5">
         <v>168</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -6198,36 +6198,36 @@
       <c r="ES2" s="7"/>
     </row>
     <row r="3" spans="1:149" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="102" t="s">
+      <c r="F3" s="109"/>
+      <c r="G3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102" t="s">
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102" t="s">
+      <c r="L3" s="106"/>
+      <c r="M3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="102"/>
+      <c r="N3" s="106"/>
       <c r="O3" s="115" t="s">
         <v>55</v>
       </c>
@@ -6236,10 +6236,10 @@
         <v>52</v>
       </c>
       <c r="R3" s="116"/>
-      <c r="S3" s="103" t="s">
+      <c r="S3" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="108" t="s">
+      <c r="T3" s="100" t="s">
         <v>47</v>
       </c>
       <c r="U3" s="7"/>
@@ -6373,10 +6373,10 @@
       <c r="ES3" s="7"/>
     </row>
     <row r="4" spans="1:149" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="113"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="66" t="s">
         <v>13</v>
       </c>
@@ -6419,8 +6419,8 @@
       <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="103"/>
-      <c r="T4" s="109"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="101"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -6723,11 +6723,11 @@
         <v>6.88</v>
       </c>
       <c r="C6" s="80">
-        <v>157.5</v>
+        <v>189.5</v>
       </c>
       <c r="D6" s="83">
         <f>SUM(C6*B6)</f>
-        <v>1083.5999999999999</v>
+        <v>1303.76</v>
       </c>
       <c r="E6" s="82"/>
       <c r="F6" s="83">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="L6" s="83">
         <f t="shared" ref="L6:L18" si="0">SUM($A$1*C6*K6/100)</f>
-        <v>3.9375</v>
+        <v>4.7374999999999998</v>
       </c>
       <c r="M6" s="83"/>
       <c r="N6" s="83">
@@ -6762,11 +6762,11 @@
       </c>
       <c r="S6" s="92">
         <f t="shared" ref="S6:S8" si="3">D6+F6+(G6/B$2)*C6+(H6/B$2)*C6+(I6/B$2)*C6+(J6/B$2)*C6+L6+N6+R6+P6</f>
-        <v>1087.5374999999999</v>
+        <v>1308.4974999999999</v>
       </c>
       <c r="T6" s="93">
         <f t="shared" ref="T6:T18" si="4">ROUND(S6-(S6*14%),0)</f>
-        <v>935</v>
+        <v>1125</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -6906,12 +6906,11 @@
         <v>6.88</v>
       </c>
       <c r="C7" s="70">
-        <f>11.25*12</f>
-        <v>135</v>
+        <v>155.5</v>
       </c>
       <c r="D7" s="83">
         <f>SUM(C7*B7)</f>
-        <v>928.8</v>
+        <v>1069.8399999999999</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="88">
@@ -6927,7 +6926,7 @@
       </c>
       <c r="L7" s="99">
         <f t="shared" ref="L7:L8" si="6">SUM($A$1*C7*K7/100)</f>
-        <v>3.375</v>
+        <v>3.8875000000000002</v>
       </c>
       <c r="M7" s="99"/>
       <c r="N7" s="89">
@@ -6939,18 +6938,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="76"/>
+      <c r="Q7" s="76">
+        <v>20.5</v>
+      </c>
       <c r="R7" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>141.04</v>
       </c>
       <c r="S7" s="92">
         <f t="shared" si="3"/>
-        <v>932.17499999999995</v>
+        <v>1214.7674999999999</v>
       </c>
       <c r="T7" s="91">
         <f t="shared" si="4"/>
-        <v>802</v>
+        <v>1045</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -7090,11 +7091,11 @@
         <v>5.98</v>
       </c>
       <c r="C8" s="80">
-        <v>157.5</v>
+        <v>178</v>
       </c>
       <c r="D8" s="83">
         <f>SUM(C8*B8)</f>
-        <v>941.85</v>
+        <v>1064.44</v>
       </c>
       <c r="E8" s="82"/>
       <c r="F8" s="83">
@@ -7110,14 +7111,14 @@
       </c>
       <c r="L8" s="83">
         <f t="shared" si="6"/>
-        <v>3.9375</v>
+        <v>4.45</v>
       </c>
       <c r="M8" s="83">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N8" s="83">
         <f t="shared" si="7"/>
-        <v>114.81600000000002</v>
+        <v>76.544000000000011</v>
       </c>
       <c r="O8" s="95"/>
       <c r="P8" s="95">
@@ -7131,11 +7132,11 @@
       </c>
       <c r="S8" s="92">
         <f t="shared" si="3"/>
-        <v>1060.6034999999999</v>
+        <v>1145.4340000000002</v>
       </c>
       <c r="T8" s="93">
         <f t="shared" si="4"/>
-        <v>912</v>
+        <v>985</v>
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -7275,11 +7276,11 @@
         <v>5.98</v>
       </c>
       <c r="C9" s="70">
-        <v>180</v>
+        <v>172.75</v>
       </c>
       <c r="D9" s="88">
         <f>SUM(C9*B9)</f>
-        <v>1076.4000000000001</v>
+        <v>1033.0450000000001</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="88">
@@ -7295,14 +7296,14 @@
       </c>
       <c r="L9" s="89">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.3187499999999996</v>
       </c>
       <c r="M9" s="99">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N9" s="89">
         <f t="shared" si="7"/>
-        <v>153.08800000000002</v>
+        <v>138.73600000000002</v>
       </c>
       <c r="O9" s="86"/>
       <c r="P9" s="94">
@@ -7316,11 +7317,11 @@
       </c>
       <c r="S9" s="90">
         <f>D9+F9+(G9/B$2)*C9+(H9/B$2)*C9+(I9/B$2)*C9+(J9/B$2)*C9+L9+N9+R9+P9</f>
-        <v>1233.9880000000001</v>
+        <v>1176.0997500000001</v>
       </c>
       <c r="T9" s="91">
         <f t="shared" si="4"/>
-        <v>1061</v>
+        <v>1011</v>
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -7460,11 +7461,11 @@
         <v>5.98</v>
       </c>
       <c r="C10" s="80">
-        <v>168.75</v>
+        <v>180</v>
       </c>
       <c r="D10" s="83">
         <f t="shared" ref="D10:D15" si="8">SUM(C10*B10)</f>
-        <v>1009.1250000000001</v>
+        <v>1076.4000000000001</v>
       </c>
       <c r="E10" s="82"/>
       <c r="F10" s="83">
@@ -7480,7 +7481,7 @@
       </c>
       <c r="L10" s="83">
         <f t="shared" si="0"/>
-        <v>4.21875</v>
+        <v>4.5</v>
       </c>
       <c r="M10" s="83">
         <v>64</v>
@@ -7501,11 +7502,11 @@
       </c>
       <c r="S10" s="92">
         <f t="shared" ref="S10:S18" si="10">D10+F10+(G10/B$2)*C10+(H10/B$2)*C10+(I10/B$2)*C10+(J10/B$2)*C10+L10+N10+R10+P10</f>
-        <v>1166.4317500000002</v>
+        <v>1233.9880000000001</v>
       </c>
       <c r="T10" s="93">
         <f t="shared" si="4"/>
-        <v>1003</v>
+        <v>1061</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -7645,11 +7646,11 @@
         <v>6.57</v>
       </c>
       <c r="C11" s="70">
-        <v>108.5</v>
+        <v>78.75</v>
       </c>
       <c r="D11" s="88">
         <f t="shared" si="8"/>
-        <v>712.84500000000003</v>
+        <v>517.38750000000005</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="88">
@@ -7665,14 +7666,14 @@
       </c>
       <c r="L11" s="89">
         <f t="shared" ref="L11" si="11">SUM($A$1*C11*K11/100)</f>
-        <v>2.7124999999999999</v>
+        <v>1.96875</v>
       </c>
       <c r="M11" s="99">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N11" s="89">
         <f t="shared" si="7"/>
-        <v>120.88800000000002</v>
+        <v>84.096000000000004</v>
       </c>
       <c r="O11" s="86"/>
       <c r="P11" s="94">
@@ -7686,11 +7687,11 @@
       </c>
       <c r="S11" s="90">
         <f t="shared" si="10"/>
-        <v>836.44550000000004</v>
+        <v>603.45225000000005</v>
       </c>
       <c r="T11" s="91">
         <f t="shared" si="4"/>
-        <v>719</v>
+        <v>519</v>
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -7830,11 +7831,11 @@
         <v>5.38</v>
       </c>
       <c r="C12" s="80">
-        <v>60.25</v>
+        <v>176</v>
       </c>
       <c r="D12" s="83">
         <f t="shared" si="8"/>
-        <v>324.14499999999998</v>
+        <v>946.88</v>
       </c>
       <c r="E12" s="82"/>
       <c r="F12" s="83">
@@ -7850,14 +7851,14 @@
       </c>
       <c r="L12" s="83">
         <f t="shared" si="0"/>
-        <v>1.5062500000000001</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M12" s="83">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="N12" s="81">
         <f>B12*M12*40%</f>
-        <v>38.736000000000004</v>
+        <v>133.42400000000001</v>
       </c>
       <c r="O12" s="95"/>
       <c r="P12" s="95">
@@ -7871,11 +7872,11 @@
       </c>
       <c r="S12" s="92">
         <f t="shared" si="10"/>
-        <v>364.38724999999999</v>
+        <v>1084.704</v>
       </c>
       <c r="T12" s="93">
         <f t="shared" si="4"/>
-        <v>313</v>
+        <v>933</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -8015,11 +8016,11 @@
         <v>5.98</v>
       </c>
       <c r="C13" s="70">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="D13" s="88">
         <f t="shared" si="8"/>
-        <v>562.12</v>
+        <v>1052.48</v>
       </c>
       <c r="E13" s="57"/>
       <c r="F13" s="88">
@@ -8035,14 +8036,14 @@
       </c>
       <c r="L13" s="89">
         <f t="shared" si="0"/>
-        <v>2.35</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M13" s="99">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="N13" s="36">
         <f t="shared" ref="N13:N18" si="12">B13*M13*40%</f>
-        <v>81.328000000000017</v>
+        <v>148.30400000000003</v>
       </c>
       <c r="O13" s="86"/>
       <c r="P13" s="94">
@@ -8056,11 +8057,11 @@
       </c>
       <c r="S13" s="90">
         <f t="shared" si="10"/>
-        <v>645.798</v>
+        <v>1205.1840000000002</v>
       </c>
       <c r="T13" s="91">
         <f t="shared" si="4"/>
-        <v>555</v>
+        <v>1036</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -8200,11 +8201,11 @@
         <v>5.98</v>
       </c>
       <c r="C14" s="80">
-        <v>180</v>
+        <v>172.75</v>
       </c>
       <c r="D14" s="83">
         <f t="shared" si="8"/>
-        <v>1076.4000000000001</v>
+        <v>1033.0450000000001</v>
       </c>
       <c r="E14" s="82"/>
       <c r="F14" s="83">
@@ -8220,14 +8221,14 @@
       </c>
       <c r="L14" s="83">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.3187499999999996</v>
       </c>
       <c r="M14" s="83">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N14" s="81">
         <f t="shared" si="12"/>
-        <v>153.08800000000002</v>
+        <v>138.73600000000002</v>
       </c>
       <c r="O14" s="95"/>
       <c r="P14" s="95">
@@ -8241,11 +8242,11 @@
       </c>
       <c r="S14" s="92">
         <f t="shared" si="10"/>
-        <v>1233.9880000000001</v>
+        <v>1176.0997500000001</v>
       </c>
       <c r="T14" s="93">
         <f t="shared" si="4"/>
-        <v>1061</v>
+        <v>1011</v>
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -8385,11 +8386,11 @@
         <v>6.88</v>
       </c>
       <c r="C15" s="70">
-        <v>164.75</v>
+        <v>168.75</v>
       </c>
       <c r="D15" s="88">
         <f t="shared" si="8"/>
-        <v>1133.48</v>
+        <v>1161</v>
       </c>
       <c r="E15" s="57"/>
       <c r="F15" s="88">
@@ -8405,14 +8406,14 @@
       </c>
       <c r="L15" s="89">
         <f t="shared" si="0"/>
-        <v>4.1187500000000004</v>
+        <v>4.21875</v>
       </c>
       <c r="M15" s="99">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N15" s="36">
         <f t="shared" si="12"/>
-        <v>170.62400000000002</v>
+        <v>176.12800000000001</v>
       </c>
       <c r="O15" s="86"/>
       <c r="P15" s="94">
@@ -8426,11 +8427,11 @@
       </c>
       <c r="S15" s="90">
         <f t="shared" si="10"/>
-        <v>1308.2227500000001</v>
+        <v>1341.3467499999999</v>
       </c>
       <c r="T15" s="91">
         <f t="shared" si="4"/>
-        <v>1125</v>
+        <v>1154</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -8570,11 +8571,11 @@
         <v>6.88</v>
       </c>
       <c r="C16" s="80">
-        <v>168.75</v>
+        <v>180</v>
       </c>
       <c r="D16" s="83">
         <f>SUM(C16*B16)</f>
-        <v>1161</v>
+        <v>1238.4000000000001</v>
       </c>
       <c r="E16" s="82"/>
       <c r="F16" s="83">
@@ -8590,14 +8591,14 @@
       </c>
       <c r="L16" s="83">
         <f t="shared" si="0"/>
-        <v>4.21875</v>
+        <v>4.5</v>
       </c>
       <c r="M16" s="83">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="N16" s="81">
         <f t="shared" si="12"/>
-        <v>88.064000000000007</v>
+        <v>176.12800000000001</v>
       </c>
       <c r="O16" s="95"/>
       <c r="P16" s="95">
@@ -8611,11 +8612,11 @@
       </c>
       <c r="S16" s="92">
         <f t="shared" si="10"/>
-        <v>1253.2827500000001</v>
+        <v>1419.028</v>
       </c>
       <c r="T16" s="93">
         <f t="shared" si="4"/>
-        <v>1078</v>
+        <v>1220</v>
       </c>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -8755,11 +8756,11 @@
         <v>6.57</v>
       </c>
       <c r="C17" s="70">
-        <v>168.75</v>
+        <v>180</v>
       </c>
       <c r="D17" s="88">
         <f>SUM(C17*B17)</f>
-        <v>1108.6875</v>
+        <v>1182.6000000000001</v>
       </c>
       <c r="E17" s="57"/>
       <c r="F17" s="88">
@@ -8775,7 +8776,7 @@
       </c>
       <c r="L17" s="88">
         <f t="shared" si="0"/>
-        <v>4.21875</v>
+        <v>4.5</v>
       </c>
       <c r="M17" s="99"/>
       <c r="N17" s="36">
@@ -8794,11 +8795,11 @@
       </c>
       <c r="S17" s="90">
         <f t="shared" si="10"/>
-        <v>1112.90625</v>
+        <v>1187.1000000000001</v>
       </c>
       <c r="T17" s="91">
         <f t="shared" si="4"/>
-        <v>957</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="18" spans="1:149" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -8990,7 +8991,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="49">
         <f>SUM(D5:D18)</f>
-        <v>13628.14</v>
+        <v>15188.965</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49">
@@ -9016,12 +9017,12 @@
       <c r="K19" s="48"/>
       <c r="L19" s="49">
         <f>SUM(L5:L18)</f>
-        <v>47.8125</v>
+        <v>54.418749999999996</v>
       </c>
       <c r="M19" s="48"/>
       <c r="N19" s="49">
         <f>SUM(N5:N18)</f>
-        <v>1073.7200000000003</v>
+        <v>1225.184</v>
       </c>
       <c r="O19" s="72"/>
       <c r="P19" s="72"/>
@@ -9029,11 +9030,11 @@
       <c r="R19" s="72"/>
       <c r="S19" s="50">
         <f>SUM(S5:S18)</f>
-        <v>14749.672500000001</v>
+        <v>16609.607750000003</v>
       </c>
       <c r="T19" s="51">
         <f>SUM(T5:T18)</f>
-        <v>12683</v>
+        <v>14283</v>
       </c>
       <c r="U19" s="52"/>
       <c r="V19" s="52"/>

--- a/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
@@ -825,18 +825,36 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -844,9 +862,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,21 +869,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1219,10 +1219,10 @@
       <c r="B1" s="2">
         <v>250000</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="104"/>
+      <c r="D1" s="110"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -1365,14 +1365,14 @@
     <row r="2" spans="1:147" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -1505,46 +1505,46 @@
       <c r="EQ2" s="7"/>
     </row>
     <row r="3" spans="1:147" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="106" t="s">
+      <c r="H3" s="114"/>
+      <c r="I3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106" t="s">
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106" t="s">
+      <c r="N3" s="102"/>
+      <c r="O3" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="110" t="s">
+      <c r="P3" s="102"/>
+      <c r="Q3" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="100" t="s">
+      <c r="R3" s="108" t="s">
         <v>47</v>
       </c>
       <c r="S3" s="7"/>
@@ -1678,12 +1678,12 @@
       <c r="EQ3" s="7"/>
     </row>
     <row r="4" spans="1:147" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="108"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="113"/>
       <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
@@ -1714,8 +1714,8 @@
       <c r="P4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="101"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="109"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -2982,13 +2982,13 @@
       <c r="EQ11" s="27"/>
     </row>
     <row r="12" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="100" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="101">
         <v>2</v>
       </c>
       <c r="D12" s="62">
@@ -3167,11 +3167,11 @@
       <c r="EQ12" s="7"/>
     </row>
     <row r="13" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="102"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="62">
         <v>14400</v>
       </c>
@@ -3348,9 +3348,9 @@
       <c r="EQ13" s="7"/>
     </row>
     <row r="14" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="102"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="103"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="62"/>
       <c r="E14" s="70"/>
       <c r="F14" s="42"/>
@@ -3497,13 +3497,13 @@
       <c r="EQ14" s="7"/>
     </row>
     <row r="15" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="104" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="113">
+      <c r="C15" s="106">
         <v>2</v>
       </c>
       <c r="D15" s="35">
@@ -3682,11 +3682,11 @@
       <c r="EQ15" s="7"/>
     </row>
     <row r="16" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="112"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="114"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="35">
         <v>22100</v>
       </c>
@@ -3861,13 +3861,13 @@
       <c r="EQ16" s="7"/>
     </row>
     <row r="17" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="100" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="103">
+      <c r="C17" s="101">
         <v>5</v>
       </c>
       <c r="D17" s="62">
@@ -4044,11 +4044,11 @@
       <c r="EQ17" s="7"/>
     </row>
     <row r="18" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="102"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="62">
         <v>22100</v>
       </c>
@@ -4223,11 +4223,11 @@
       <c r="EQ18" s="7"/>
     </row>
     <row r="19" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="103"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="62">
         <v>22100</v>
       </c>
@@ -4399,11 +4399,11 @@
       <c r="EQ19" s="7"/>
     </row>
     <row r="20" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="102"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="103"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="62">
         <v>22100</v>
       </c>
@@ -4580,11 +4580,11 @@
       <c r="EQ20" s="7"/>
     </row>
     <row r="21" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="103"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="62">
         <v>22100</v>
       </c>
@@ -5836,13 +5836,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="C12:C14"/>
@@ -5856,6 +5849,13 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:L3"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5867,11 +5867,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ES21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5882,10 +5882,10 @@
     <col min="4" max="4" width="14" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="6.5546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" style="4" customWidth="1"/>
     <col min="13" max="13" width="6.5546875" style="3" customWidth="1"/>
@@ -6054,18 +6054,18 @@
       <c r="B2" s="5">
         <v>168</v>
       </c>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -6198,36 +6198,36 @@
       <c r="ES2" s="7"/>
     </row>
     <row r="3" spans="1:149" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="106" t="s">
+      <c r="F3" s="114"/>
+      <c r="G3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106" t="s">
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106" t="s">
+      <c r="L3" s="102"/>
+      <c r="M3" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="106"/>
+      <c r="N3" s="102"/>
       <c r="O3" s="115" t="s">
         <v>55</v>
       </c>
@@ -6236,10 +6236,10 @@
         <v>52</v>
       </c>
       <c r="R3" s="116"/>
-      <c r="S3" s="110" t="s">
+      <c r="S3" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="100" t="s">
+      <c r="T3" s="108" t="s">
         <v>47</v>
       </c>
       <c r="U3" s="7"/>
@@ -6373,10 +6373,10 @@
       <c r="ES3" s="7"/>
     </row>
     <row r="4" spans="1:149" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="108"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="66" t="s">
         <v>13</v>
       </c>
@@ -6419,8 +6419,8 @@
       <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="110"/>
-      <c r="T4" s="101"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="109"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -6723,11 +6723,11 @@
         <v>6.88</v>
       </c>
       <c r="C6" s="80">
-        <v>189.5</v>
+        <v>193.75</v>
       </c>
       <c r="D6" s="83">
         <f>SUM(C6*B6)</f>
-        <v>1303.76</v>
+        <v>1333</v>
       </c>
       <c r="E6" s="82"/>
       <c r="F6" s="83">
@@ -6739,11 +6739,11 @@
       <c r="I6" s="83"/>
       <c r="J6" s="83"/>
       <c r="K6" s="83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="83">
         <f t="shared" ref="L6:L18" si="0">SUM($A$1*C6*K6/100)</f>
-        <v>4.7374999999999998</v>
+        <v>0</v>
       </c>
       <c r="M6" s="83"/>
       <c r="N6" s="83">
@@ -6755,18 +6755,20 @@
         <f t="shared" ref="P6:P8" si="1">B6*O6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="84"/>
+      <c r="Q6" s="84">
+        <v>26.5</v>
+      </c>
       <c r="R6" s="95">
         <f t="shared" ref="R6:R16" si="2">B6*Q6</f>
-        <v>0</v>
+        <v>182.32</v>
       </c>
       <c r="S6" s="92">
         <f t="shared" ref="S6:S8" si="3">D6+F6+(G6/B$2)*C6+(H6/B$2)*C6+(I6/B$2)*C6+(J6/B$2)*C6+L6+N6+R6+P6</f>
-        <v>1308.4974999999999</v>
+        <v>1515.32</v>
       </c>
       <c r="T6" s="93">
         <f t="shared" ref="T6:T18" si="4">ROUND(S6-(S6*14%),0)</f>
-        <v>1125</v>
+        <v>1303</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -6906,11 +6908,11 @@
         <v>6.88</v>
       </c>
       <c r="C7" s="70">
-        <v>155.5</v>
+        <v>45</v>
       </c>
       <c r="D7" s="83">
         <f>SUM(C7*B7)</f>
-        <v>1069.8399999999999</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="88">
@@ -6921,12 +6923,12 @@
       <c r="H7" s="88"/>
       <c r="I7" s="88"/>
       <c r="J7" s="89"/>
-      <c r="K7" s="63">
-        <v>0.1</v>
+      <c r="K7" s="83">
+        <v>0</v>
       </c>
       <c r="L7" s="99">
         <f t="shared" ref="L7:L8" si="6">SUM($A$1*C7*K7/100)</f>
-        <v>3.8875000000000002</v>
+        <v>0</v>
       </c>
       <c r="M7" s="99"/>
       <c r="N7" s="89">
@@ -6938,20 +6940,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="76">
-        <v>20.5</v>
-      </c>
+      <c r="Q7" s="76"/>
       <c r="R7" s="86">
         <f t="shared" si="2"/>
-        <v>141.04</v>
+        <v>0</v>
       </c>
       <c r="S7" s="92">
         <f t="shared" si="3"/>
-        <v>1214.7674999999999</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="T7" s="91">
         <f t="shared" si="4"/>
-        <v>1045</v>
+        <v>266</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -7091,11 +7091,11 @@
         <v>5.98</v>
       </c>
       <c r="C8" s="80">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="D8" s="83">
         <f>SUM(C8*B8)</f>
-        <v>1064.44</v>
+        <v>472.42</v>
       </c>
       <c r="E8" s="82"/>
       <c r="F8" s="83">
@@ -7107,18 +7107,16 @@
       <c r="I8" s="83"/>
       <c r="J8" s="83"/>
       <c r="K8" s="83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="83">
         <f t="shared" si="6"/>
-        <v>4.45</v>
-      </c>
-      <c r="M8" s="83">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M8" s="83"/>
       <c r="N8" s="83">
         <f t="shared" si="7"/>
-        <v>76.544000000000011</v>
+        <v>0</v>
       </c>
       <c r="O8" s="95"/>
       <c r="P8" s="95">
@@ -7132,11 +7130,11 @@
       </c>
       <c r="S8" s="92">
         <f t="shared" si="3"/>
-        <v>1145.4340000000002</v>
+        <v>472.42</v>
       </c>
       <c r="T8" s="93">
         <f t="shared" si="4"/>
-        <v>985</v>
+        <v>406</v>
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -7276,11 +7274,11 @@
         <v>5.98</v>
       </c>
       <c r="C9" s="70">
-        <v>172.75</v>
+        <v>164.75</v>
       </c>
       <c r="D9" s="88">
         <f>SUM(C9*B9)</f>
-        <v>1033.0450000000001</v>
+        <v>985.20500000000004</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="88">
@@ -7291,37 +7289,39 @@
       <c r="H9" s="99"/>
       <c r="I9" s="88"/>
       <c r="J9" s="89"/>
-      <c r="K9" s="63">
-        <v>0.1</v>
+      <c r="K9" s="83">
+        <v>0</v>
       </c>
       <c r="L9" s="89">
         <f t="shared" si="0"/>
-        <v>4.3187499999999996</v>
+        <v>0</v>
       </c>
       <c r="M9" s="99">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N9" s="89">
         <f t="shared" si="7"/>
-        <v>138.73600000000002</v>
+        <v>129.16800000000001</v>
       </c>
       <c r="O9" s="86"/>
       <c r="P9" s="94">
         <f>B9*O9</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="76"/>
+      <c r="Q9" s="76">
+        <v>4</v>
+      </c>
       <c r="R9" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23.92</v>
       </c>
       <c r="S9" s="90">
         <f>D9+F9+(G9/B$2)*C9+(H9/B$2)*C9+(I9/B$2)*C9+(J9/B$2)*C9+L9+N9+R9+P9</f>
-        <v>1176.0997500000001</v>
+        <v>1138.2930000000001</v>
       </c>
       <c r="T9" s="91">
         <f t="shared" si="4"/>
-        <v>1011</v>
+        <v>979</v>
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -7461,11 +7461,11 @@
         <v>5.98</v>
       </c>
       <c r="C10" s="80">
-        <v>180</v>
+        <v>172.75</v>
       </c>
       <c r="D10" s="83">
         <f t="shared" ref="D10:D15" si="8">SUM(C10*B10)</f>
-        <v>1076.4000000000001</v>
+        <v>1033.0450000000001</v>
       </c>
       <c r="E10" s="82"/>
       <c r="F10" s="83">
@@ -7477,36 +7477,38 @@
       <c r="I10" s="83"/>
       <c r="J10" s="83"/>
       <c r="K10" s="83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="83">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="M10" s="83">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N10" s="83">
         <f t="shared" si="7"/>
-        <v>153.08800000000002</v>
+        <v>138.73600000000002</v>
       </c>
       <c r="O10" s="95"/>
       <c r="P10" s="95">
         <f t="shared" ref="P10:P18" si="9">B10*O10</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="84"/>
+      <c r="Q10" s="84">
+        <v>7.25</v>
+      </c>
       <c r="R10" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>43.355000000000004</v>
       </c>
       <c r="S10" s="92">
         <f t="shared" ref="S10:S18" si="10">D10+F10+(G10/B$2)*C10+(H10/B$2)*C10+(I10/B$2)*C10+(J10/B$2)*C10+L10+N10+R10+P10</f>
-        <v>1233.9880000000001</v>
+        <v>1215.1360000000002</v>
       </c>
       <c r="T10" s="93">
         <f t="shared" si="4"/>
-        <v>1061</v>
+        <v>1045</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -7646,11 +7648,11 @@
         <v>6.57</v>
       </c>
       <c r="C11" s="70">
-        <v>78.75</v>
+        <v>180</v>
       </c>
       <c r="D11" s="88">
         <f t="shared" si="8"/>
-        <v>517.38750000000005</v>
+        <v>1182.6000000000001</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="88">
@@ -7662,18 +7664,18 @@
       <c r="I11" s="88"/>
       <c r="J11" s="89"/>
       <c r="K11" s="83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="89">
         <f t="shared" ref="L11" si="11">SUM($A$1*C11*K11/100)</f>
-        <v>1.96875</v>
+        <v>0</v>
       </c>
       <c r="M11" s="99">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="N11" s="89">
         <f t="shared" si="7"/>
-        <v>84.096000000000004</v>
+        <v>168.19200000000001</v>
       </c>
       <c r="O11" s="86"/>
       <c r="P11" s="94">
@@ -7687,11 +7689,11 @@
       </c>
       <c r="S11" s="90">
         <f t="shared" si="10"/>
-        <v>603.45225000000005</v>
+        <v>1350.7920000000001</v>
       </c>
       <c r="T11" s="91">
         <f t="shared" si="4"/>
-        <v>519</v>
+        <v>1162</v>
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -7831,11 +7833,11 @@
         <v>5.38</v>
       </c>
       <c r="C12" s="80">
-        <v>176</v>
+        <v>157.5</v>
       </c>
       <c r="D12" s="83">
         <f t="shared" si="8"/>
-        <v>946.88</v>
+        <v>847.35</v>
       </c>
       <c r="E12" s="82"/>
       <c r="F12" s="83">
@@ -7847,36 +7849,38 @@
       <c r="I12" s="83"/>
       <c r="J12" s="83"/>
       <c r="K12" s="83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="83">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="M12" s="83">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N12" s="81">
         <f>B12*M12*40%</f>
-        <v>133.42400000000001</v>
+        <v>137.72800000000001</v>
       </c>
       <c r="O12" s="95"/>
       <c r="P12" s="95">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="84"/>
+      <c r="Q12" s="84">
+        <v>11.25</v>
+      </c>
       <c r="R12" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60.524999999999999</v>
       </c>
       <c r="S12" s="92">
         <f t="shared" si="10"/>
-        <v>1084.704</v>
+        <v>1045.6030000000001</v>
       </c>
       <c r="T12" s="93">
         <f t="shared" si="4"/>
-        <v>933</v>
+        <v>899</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -8016,11 +8020,11 @@
         <v>5.98</v>
       </c>
       <c r="C13" s="70">
-        <v>176</v>
+        <v>157.5</v>
       </c>
       <c r="D13" s="88">
         <f t="shared" si="8"/>
-        <v>1052.48</v>
+        <v>941.85</v>
       </c>
       <c r="E13" s="57"/>
       <c r="F13" s="88">
@@ -8031,37 +8035,39 @@
       <c r="H13" s="88"/>
       <c r="I13" s="88"/>
       <c r="J13" s="89"/>
-      <c r="K13" s="63">
-        <v>0.1</v>
+      <c r="K13" s="83">
+        <v>0</v>
       </c>
       <c r="L13" s="89">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="M13" s="99">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N13" s="36">
         <f t="shared" ref="N13:N18" si="12">B13*M13*40%</f>
-        <v>148.30400000000003</v>
+        <v>153.08800000000002</v>
       </c>
       <c r="O13" s="86"/>
       <c r="P13" s="94">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="76"/>
+      <c r="Q13" s="76">
+        <v>11.25</v>
+      </c>
       <c r="R13" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67.275000000000006</v>
       </c>
       <c r="S13" s="90">
         <f t="shared" si="10"/>
-        <v>1205.1840000000002</v>
+        <v>1162.2130000000002</v>
       </c>
       <c r="T13" s="91">
         <f t="shared" si="4"/>
-        <v>1036</v>
+        <v>1000</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -8201,11 +8207,11 @@
         <v>5.98</v>
       </c>
       <c r="C14" s="80">
-        <v>172.75</v>
+        <v>153.5</v>
       </c>
       <c r="D14" s="83">
         <f t="shared" si="8"/>
-        <v>1033.0450000000001</v>
+        <v>917.93000000000006</v>
       </c>
       <c r="E14" s="82"/>
       <c r="F14" s="83">
@@ -8217,36 +8223,38 @@
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
       <c r="K14" s="83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="83">
         <f t="shared" si="0"/>
-        <v>4.3187499999999996</v>
+        <v>0</v>
       </c>
       <c r="M14" s="83">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N14" s="81">
         <f t="shared" si="12"/>
-        <v>138.73600000000002</v>
+        <v>129.16800000000001</v>
       </c>
       <c r="O14" s="95"/>
       <c r="P14" s="95">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="84"/>
+      <c r="Q14" s="84">
+        <v>4</v>
+      </c>
       <c r="R14" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23.92</v>
       </c>
       <c r="S14" s="92">
         <f t="shared" si="10"/>
-        <v>1176.0997500000001</v>
+        <v>1071.018</v>
       </c>
       <c r="T14" s="93">
         <f t="shared" si="4"/>
-        <v>1011</v>
+        <v>921</v>
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -8386,11 +8394,11 @@
         <v>6.88</v>
       </c>
       <c r="C15" s="70">
-        <v>168.75</v>
+        <v>213.75</v>
       </c>
       <c r="D15" s="88">
         <f t="shared" si="8"/>
-        <v>1161</v>
+        <v>1470.6</v>
       </c>
       <c r="E15" s="57"/>
       <c r="F15" s="88">
@@ -8401,12 +8409,12 @@
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
       <c r="J15" s="89"/>
-      <c r="K15" s="63">
-        <v>0.1</v>
+      <c r="K15" s="83">
+        <v>0</v>
       </c>
       <c r="L15" s="89">
         <f t="shared" si="0"/>
-        <v>4.21875</v>
+        <v>0</v>
       </c>
       <c r="M15" s="99">
         <v>64</v>
@@ -8420,18 +8428,20 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="76"/>
+      <c r="Q15" s="76">
+        <v>22.5</v>
+      </c>
       <c r="R15" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="S15" s="90">
         <f t="shared" si="10"/>
-        <v>1341.3467499999999</v>
+        <v>1801.5279999999998</v>
       </c>
       <c r="T15" s="91">
         <f t="shared" si="4"/>
-        <v>1154</v>
+        <v>1549</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -8571,11 +8581,11 @@
         <v>6.88</v>
       </c>
       <c r="C16" s="80">
-        <v>180</v>
+        <v>172.75</v>
       </c>
       <c r="D16" s="83">
         <f>SUM(C16*B16)</f>
-        <v>1238.4000000000001</v>
+        <v>1188.52</v>
       </c>
       <c r="E16" s="82"/>
       <c r="F16" s="83">
@@ -8587,36 +8597,38 @@
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="83">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="M16" s="83">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N16" s="81">
         <f t="shared" si="12"/>
-        <v>176.12800000000001</v>
+        <v>159.61600000000001</v>
       </c>
       <c r="O16" s="95"/>
       <c r="P16" s="95">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="84"/>
+      <c r="Q16" s="84">
+        <v>7.25</v>
+      </c>
       <c r="R16" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49.88</v>
       </c>
       <c r="S16" s="92">
         <f t="shared" si="10"/>
-        <v>1419.028</v>
+        <v>1398.0160000000001</v>
       </c>
       <c r="T16" s="93">
         <f t="shared" si="4"/>
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -8756,11 +8768,11 @@
         <v>6.57</v>
       </c>
       <c r="C17" s="70">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D17" s="88">
         <f>SUM(C17*B17)</f>
-        <v>1182.6000000000001</v>
+        <v>591.30000000000007</v>
       </c>
       <c r="E17" s="57"/>
       <c r="F17" s="88">
@@ -8776,7 +8788,7 @@
       </c>
       <c r="L17" s="88">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="M17" s="99"/>
       <c r="N17" s="36">
@@ -8795,11 +8807,11 @@
       </c>
       <c r="S17" s="90">
         <f t="shared" si="10"/>
-        <v>1187.1000000000001</v>
+        <v>593.55000000000007</v>
       </c>
       <c r="T17" s="91">
         <f t="shared" si="4"/>
-        <v>1021</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:149" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -8810,11 +8822,11 @@
         <v>6.57</v>
       </c>
       <c r="C18" s="80">
-        <v>168.75</v>
+        <v>205.5</v>
       </c>
       <c r="D18" s="83">
         <f>SUM(C18*B18)</f>
-        <v>1108.6875</v>
+        <v>1350.135</v>
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="83">
@@ -8830,7 +8842,7 @@
       </c>
       <c r="L18" s="83">
         <f t="shared" si="0"/>
-        <v>4.21875</v>
+        <v>5.1375000000000002</v>
       </c>
       <c r="M18" s="83"/>
       <c r="N18" s="81">
@@ -8842,18 +8854,20 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="84"/>
+      <c r="Q18" s="84">
+        <v>8</v>
+      </c>
       <c r="R18" s="95">
         <f t="shared" ref="R18" si="13">B18*Q18</f>
-        <v>0</v>
+        <v>52.56</v>
       </c>
       <c r="S18" s="92">
         <f t="shared" si="10"/>
-        <v>1112.90625</v>
+        <v>1407.8325</v>
       </c>
       <c r="T18" s="93">
         <f t="shared" si="4"/>
-        <v>957</v>
+        <v>1211</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -8991,7 +9005,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="49">
         <f>SUM(D5:D18)</f>
-        <v>15188.965</v>
+        <v>14024.555000000002</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49">
@@ -9017,12 +9031,12 @@
       <c r="K19" s="48"/>
       <c r="L19" s="49">
         <f>SUM(L5:L18)</f>
-        <v>54.418749999999996</v>
+        <v>7.3875000000000002</v>
       </c>
       <c r="M19" s="48"/>
       <c r="N19" s="49">
         <f>SUM(N5:N18)</f>
-        <v>1225.184</v>
+        <v>1191.8240000000001</v>
       </c>
       <c r="O19" s="72"/>
       <c r="P19" s="72"/>
@@ -9030,11 +9044,11 @@
       <c r="R19" s="72"/>
       <c r="S19" s="50">
         <f>SUM(S5:S18)</f>
-        <v>16609.607750000003</v>
+        <v>15882.3215</v>
       </c>
       <c r="T19" s="51">
         <f>SUM(T5:T18)</f>
-        <v>14283</v>
+        <v>13658</v>
       </c>
       <c r="U19" s="52"/>
       <c r="V19" s="52"/>

--- a/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
@@ -5867,11 +5867,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ES21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6908,11 +6908,11 @@
         <v>6.88</v>
       </c>
       <c r="C7" s="70">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="D7" s="83">
         <f>SUM(C7*B7)</f>
-        <v>309.60000000000002</v>
+        <v>1142.08</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="88">
@@ -6947,11 +6947,11 @@
       </c>
       <c r="S7" s="92">
         <f t="shared" si="3"/>
-        <v>309.60000000000002</v>
+        <v>1142.08</v>
       </c>
       <c r="T7" s="91">
         <f t="shared" si="4"/>
-        <v>266</v>
+        <v>982</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -7091,11 +7091,11 @@
         <v>5.98</v>
       </c>
       <c r="C8" s="80">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D8" s="83">
         <f>SUM(C8*B8)</f>
-        <v>472.42</v>
+        <v>562.12</v>
       </c>
       <c r="E8" s="82"/>
       <c r="F8" s="83">
@@ -7130,11 +7130,11 @@
       </c>
       <c r="S8" s="92">
         <f t="shared" si="3"/>
-        <v>472.42</v>
+        <v>562.12</v>
       </c>
       <c r="T8" s="93">
         <f t="shared" si="4"/>
-        <v>406</v>
+        <v>483</v>
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -7274,11 +7274,11 @@
         <v>5.98</v>
       </c>
       <c r="C9" s="70">
-        <v>164.75</v>
+        <v>168.75</v>
       </c>
       <c r="D9" s="88">
         <f>SUM(C9*B9)</f>
-        <v>985.20500000000004</v>
+        <v>1009.1250000000001</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="88">
@@ -7297,11 +7297,11 @@
         <v>0</v>
       </c>
       <c r="M9" s="99">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N9" s="89">
         <f t="shared" si="7"/>
-        <v>129.16800000000001</v>
+        <v>153.08800000000002</v>
       </c>
       <c r="O9" s="86"/>
       <c r="P9" s="94">
@@ -7317,11 +7317,11 @@
       </c>
       <c r="S9" s="90">
         <f>D9+F9+(G9/B$2)*C9+(H9/B$2)*C9+(I9/B$2)*C9+(J9/B$2)*C9+L9+N9+R9+P9</f>
-        <v>1138.2930000000001</v>
+        <v>1186.1330000000003</v>
       </c>
       <c r="T9" s="91">
         <f t="shared" si="4"/>
-        <v>979</v>
+        <v>1020</v>
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -7461,11 +7461,11 @@
         <v>5.98</v>
       </c>
       <c r="C10" s="80">
-        <v>172.75</v>
+        <v>168.75</v>
       </c>
       <c r="D10" s="83">
         <f t="shared" ref="D10:D15" si="8">SUM(C10*B10)</f>
-        <v>1033.0450000000001</v>
+        <v>1009.1250000000001</v>
       </c>
       <c r="E10" s="82"/>
       <c r="F10" s="83">
@@ -7484,11 +7484,11 @@
         <v>0</v>
       </c>
       <c r="M10" s="83">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N10" s="83">
         <f t="shared" si="7"/>
-        <v>138.73600000000002</v>
+        <v>133.952</v>
       </c>
       <c r="O10" s="95"/>
       <c r="P10" s="95">
@@ -7504,11 +7504,11 @@
       </c>
       <c r="S10" s="92">
         <f t="shared" ref="S10:S18" si="10">D10+F10+(G10/B$2)*C10+(H10/B$2)*C10+(I10/B$2)*C10+(J10/B$2)*C10+L10+N10+R10+P10</f>
-        <v>1215.1360000000002</v>
+        <v>1186.4320000000002</v>
       </c>
       <c r="T10" s="93">
         <f t="shared" si="4"/>
-        <v>1045</v>
+        <v>1020</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -7833,11 +7833,11 @@
         <v>5.38</v>
       </c>
       <c r="C12" s="80">
-        <v>157.5</v>
+        <v>180</v>
       </c>
       <c r="D12" s="83">
         <f t="shared" si="8"/>
-        <v>847.35</v>
+        <v>968.4</v>
       </c>
       <c r="E12" s="82"/>
       <c r="F12" s="83">
@@ -7876,11 +7876,11 @@
       </c>
       <c r="S12" s="92">
         <f t="shared" si="10"/>
-        <v>1045.6030000000001</v>
+        <v>1166.653</v>
       </c>
       <c r="T12" s="93">
         <f t="shared" si="4"/>
-        <v>899</v>
+        <v>1003</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -8020,11 +8020,11 @@
         <v>5.98</v>
       </c>
       <c r="C13" s="70">
-        <v>157.5</v>
+        <v>180</v>
       </c>
       <c r="D13" s="88">
         <f t="shared" si="8"/>
-        <v>941.85</v>
+        <v>1076.4000000000001</v>
       </c>
       <c r="E13" s="57"/>
       <c r="F13" s="88">
@@ -8063,11 +8063,11 @@
       </c>
       <c r="S13" s="90">
         <f t="shared" si="10"/>
-        <v>1162.2130000000002</v>
+        <v>1296.7630000000001</v>
       </c>
       <c r="T13" s="91">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1115</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -8207,11 +8207,11 @@
         <v>5.98</v>
       </c>
       <c r="C14" s="80">
-        <v>153.5</v>
+        <v>33.75</v>
       </c>
       <c r="D14" s="83">
         <f t="shared" si="8"/>
-        <v>917.93000000000006</v>
+        <v>201.82500000000002</v>
       </c>
       <c r="E14" s="82"/>
       <c r="F14" s="83">
@@ -8230,11 +8230,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="83">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="N14" s="81">
         <f t="shared" si="12"/>
-        <v>129.16800000000001</v>
+        <v>38.272000000000006</v>
       </c>
       <c r="O14" s="95"/>
       <c r="P14" s="95">
@@ -8250,11 +8250,11 @@
       </c>
       <c r="S14" s="92">
         <f t="shared" si="10"/>
-        <v>1071.018</v>
+        <v>264.01700000000005</v>
       </c>
       <c r="T14" s="93">
         <f t="shared" si="4"/>
-        <v>921</v>
+        <v>227</v>
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -8394,11 +8394,11 @@
         <v>6.88</v>
       </c>
       <c r="C15" s="70">
-        <v>213.75</v>
+        <v>188</v>
       </c>
       <c r="D15" s="88">
         <f t="shared" si="8"/>
-        <v>1470.6</v>
+        <v>1293.44</v>
       </c>
       <c r="E15" s="57"/>
       <c r="F15" s="88">
@@ -8417,11 +8417,11 @@
         <v>0</v>
       </c>
       <c r="M15" s="99">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N15" s="36">
         <f t="shared" si="12"/>
-        <v>176.12800000000001</v>
+        <v>44.032000000000004</v>
       </c>
       <c r="O15" s="86"/>
       <c r="P15" s="94">
@@ -8429,19 +8429,19 @@
         <v>0</v>
       </c>
       <c r="Q15" s="76">
-        <v>22.5</v>
+        <v>8</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="2"/>
-        <v>154.80000000000001</v>
+        <v>55.04</v>
       </c>
       <c r="S15" s="90">
         <f t="shared" si="10"/>
-        <v>1801.5279999999998</v>
+        <v>1392.5119999999999</v>
       </c>
       <c r="T15" s="91">
         <f t="shared" si="4"/>
-        <v>1549</v>
+        <v>1198</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -8768,11 +8768,11 @@
         <v>6.57</v>
       </c>
       <c r="C17" s="70">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="D17" s="88">
         <f>SUM(C17*B17)</f>
-        <v>591.30000000000007</v>
+        <v>1189.17</v>
       </c>
       <c r="E17" s="57"/>
       <c r="F17" s="88">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="L17" s="88">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>4.5250000000000004</v>
       </c>
       <c r="M17" s="99"/>
       <c r="N17" s="36">
@@ -8807,11 +8807,11 @@
       </c>
       <c r="S17" s="90">
         <f t="shared" si="10"/>
-        <v>593.55000000000007</v>
+        <v>1193.6950000000002</v>
       </c>
       <c r="T17" s="91">
         <f t="shared" si="4"/>
-        <v>510</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="18" spans="1:149" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -9005,7 +9005,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="49">
         <f>SUM(D5:D18)</f>
-        <v>14024.555000000002</v>
+        <v>14906.940000000002</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49">
@@ -9031,12 +9031,12 @@
       <c r="K19" s="48"/>
       <c r="L19" s="49">
         <f>SUM(L5:L18)</f>
-        <v>7.3875000000000002</v>
+        <v>9.6625000000000014</v>
       </c>
       <c r="M19" s="48"/>
       <c r="N19" s="49">
         <f>SUM(N5:N18)</f>
-        <v>1191.8240000000001</v>
+        <v>987.96800000000007</v>
       </c>
       <c r="O19" s="72"/>
       <c r="P19" s="72"/>
@@ -9044,11 +9044,11 @@
       <c r="R19" s="72"/>
       <c r="S19" s="50">
         <f>SUM(S5:S18)</f>
-        <v>15882.3215</v>
+        <v>16463.3655</v>
       </c>
       <c r="T19" s="51">
         <f>SUM(T5:T18)</f>
-        <v>13658</v>
+        <v>14158</v>
       </c>
       <c r="U19" s="52"/>
       <c r="V19" s="52"/>

--- a/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
@@ -825,15 +825,36 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -848,27 +869,6 @@
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1219,10 +1219,10 @@
       <c r="B1" s="2">
         <v>250000</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="110"/>
+      <c r="D1" s="104"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -1365,14 +1365,14 @@
     <row r="2" spans="1:147" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -1505,46 +1505,46 @@
       <c r="EQ2" s="7"/>
     </row>
     <row r="3" spans="1:147" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="114"/>
-      <c r="I3" s="102" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102" t="s">
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102" t="s">
+      <c r="N3" s="106"/>
+      <c r="O3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="103" t="s">
+      <c r="P3" s="106"/>
+      <c r="Q3" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="108" t="s">
+      <c r="R3" s="100" t="s">
         <v>47</v>
       </c>
       <c r="S3" s="7"/>
@@ -1678,12 +1678,12 @@
       <c r="EQ3" s="7"/>
     </row>
     <row r="4" spans="1:147" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="102"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="113"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
@@ -1714,8 +1714,8 @@
       <c r="P4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="109"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="101"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -2982,13 +2982,13 @@
       <c r="EQ11" s="27"/>
     </row>
     <row r="12" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="102" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="103">
         <v>2</v>
       </c>
       <c r="D12" s="62">
@@ -3167,11 +3167,11 @@
       <c r="EQ12" s="7"/>
     </row>
     <row r="13" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="100"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="101"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="62">
         <v>14400</v>
       </c>
@@ -3348,9 +3348,9 @@
       <c r="EQ13" s="7"/>
     </row>
     <row r="14" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
+      <c r="A14" s="102"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="101"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="62"/>
       <c r="E14" s="70"/>
       <c r="F14" s="42"/>
@@ -3497,13 +3497,13 @@
       <c r="EQ14" s="7"/>
     </row>
     <row r="15" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="111" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="106">
+      <c r="C15" s="113">
         <v>2</v>
       </c>
       <c r="D15" s="35">
@@ -3682,11 +3682,11 @@
       <c r="EQ15" s="7"/>
     </row>
     <row r="16" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="105"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="107"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="35">
         <v>22100</v>
       </c>
@@ -3861,13 +3861,13 @@
       <c r="EQ16" s="7"/>
     </row>
     <row r="17" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="102" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="103">
         <v>5</v>
       </c>
       <c r="D17" s="62">
@@ -4044,11 +4044,11 @@
       <c r="EQ17" s="7"/>
     </row>
     <row r="18" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="100"/>
+      <c r="A18" s="102"/>
       <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="101"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="62">
         <v>22100</v>
       </c>
@@ -4223,11 +4223,11 @@
       <c r="EQ18" s="7"/>
     </row>
     <row r="19" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="101"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="62">
         <v>22100</v>
       </c>
@@ -4399,11 +4399,11 @@
       <c r="EQ19" s="7"/>
     </row>
     <row r="20" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="101"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="62">
         <v>22100</v>
       </c>
@@ -4580,11 +4580,11 @@
       <c r="EQ20" s="7"/>
     </row>
     <row r="21" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="101"/>
+      <c r="C21" s="103"/>
       <c r="D21" s="62">
         <v>22100</v>
       </c>
@@ -5836,6 +5836,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="C12:C14"/>
@@ -5849,13 +5856,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:L3"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5867,11 +5867,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ES21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="67" zoomScaleSheetLayoutView="67" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6054,18 +6054,18 @@
       <c r="B2" s="5">
         <v>168</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -6198,36 +6198,36 @@
       <c r="ES2" s="7"/>
     </row>
     <row r="3" spans="1:149" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="102" t="s">
+      <c r="F3" s="109"/>
+      <c r="G3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102" t="s">
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102" t="s">
+      <c r="L3" s="106"/>
+      <c r="M3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="102"/>
+      <c r="N3" s="106"/>
       <c r="O3" s="115" t="s">
         <v>55</v>
       </c>
@@ -6236,10 +6236,10 @@
         <v>52</v>
       </c>
       <c r="R3" s="116"/>
-      <c r="S3" s="103" t="s">
+      <c r="S3" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="108" t="s">
+      <c r="T3" s="100" t="s">
         <v>47</v>
       </c>
       <c r="U3" s="7"/>
@@ -6373,10 +6373,10 @@
       <c r="ES3" s="7"/>
     </row>
     <row r="4" spans="1:149" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="113"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="66" t="s">
         <v>13</v>
       </c>
@@ -6419,8 +6419,8 @@
       <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="103"/>
-      <c r="T4" s="109"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="101"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -6720,14 +6720,14 @@
         <v>57</v>
       </c>
       <c r="B6" s="97">
-        <v>6.88</v>
+        <v>6.79</v>
       </c>
       <c r="C6" s="80">
-        <v>193.75</v>
+        <v>146.25</v>
       </c>
       <c r="D6" s="83">
         <f>SUM(C6*B6)</f>
-        <v>1333</v>
+        <v>993.03750000000002</v>
       </c>
       <c r="E6" s="82"/>
       <c r="F6" s="83">
@@ -6756,19 +6756,19 @@
         <v>0</v>
       </c>
       <c r="Q6" s="84">
-        <v>26.5</v>
+        <v>11.25</v>
       </c>
       <c r="R6" s="95">
         <f t="shared" ref="R6:R16" si="2">B6*Q6</f>
-        <v>182.32</v>
+        <v>76.387500000000003</v>
       </c>
       <c r="S6" s="92">
         <f t="shared" ref="S6:S8" si="3">D6+F6+(G6/B$2)*C6+(H6/B$2)*C6+(I6/B$2)*C6+(J6/B$2)*C6+L6+N6+R6+P6</f>
-        <v>1515.32</v>
+        <v>1069.425</v>
       </c>
       <c r="T6" s="93">
         <f t="shared" ref="T6:T18" si="4">ROUND(S6-(S6*14%),0)</f>
-        <v>1303</v>
+        <v>920</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -6905,14 +6905,14 @@
         <v>51</v>
       </c>
       <c r="B7" s="96">
-        <v>6.88</v>
+        <v>6.79</v>
       </c>
       <c r="C7" s="70">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D7" s="83">
         <f>SUM(C7*B7)</f>
-        <v>1142.08</v>
+        <v>1167.8800000000001</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="88">
@@ -6947,11 +6947,11 @@
       </c>
       <c r="S7" s="92">
         <f t="shared" si="3"/>
-        <v>1142.08</v>
+        <v>1167.8800000000001</v>
       </c>
       <c r="T7" s="91">
         <f t="shared" si="4"/>
-        <v>982</v>
+        <v>1004</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -7088,14 +7088,14 @@
         <v>58</v>
       </c>
       <c r="B8" s="97">
-        <v>5.98</v>
+        <v>5.91</v>
       </c>
       <c r="C8" s="80">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="D8" s="83">
         <f>SUM(C8*B8)</f>
-        <v>562.12</v>
+        <v>939.69</v>
       </c>
       <c r="E8" s="82"/>
       <c r="F8" s="83">
@@ -7130,11 +7130,11 @@
       </c>
       <c r="S8" s="92">
         <f t="shared" si="3"/>
-        <v>562.12</v>
+        <v>939.69</v>
       </c>
       <c r="T8" s="93">
         <f t="shared" si="4"/>
-        <v>483</v>
+        <v>808</v>
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -7309,19 +7309,19 @@
         <v>0</v>
       </c>
       <c r="Q9" s="76">
-        <v>4</v>
+        <v>15.25</v>
       </c>
       <c r="R9" s="86">
         <f t="shared" si="2"/>
-        <v>23.92</v>
+        <v>91.195000000000007</v>
       </c>
       <c r="S9" s="90">
         <f>D9+F9+(G9/B$2)*C9+(H9/B$2)*C9+(I9/B$2)*C9+(J9/B$2)*C9+L9+N9+R9+P9</f>
-        <v>1186.1330000000003</v>
+        <v>1253.4080000000001</v>
       </c>
       <c r="T9" s="91">
         <f t="shared" si="4"/>
-        <v>1020</v>
+        <v>1078</v>
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -7458,14 +7458,14 @@
         <v>60</v>
       </c>
       <c r="B10" s="97">
-        <v>5.98</v>
+        <v>5.91</v>
       </c>
       <c r="C10" s="80">
-        <v>168.75</v>
+        <v>176</v>
       </c>
       <c r="D10" s="83">
         <f t="shared" ref="D10:D15" si="8">SUM(C10*B10)</f>
-        <v>1009.1250000000001</v>
+        <v>1040.1600000000001</v>
       </c>
       <c r="E10" s="82"/>
       <c r="F10" s="83">
@@ -7484,11 +7484,11 @@
         <v>0</v>
       </c>
       <c r="M10" s="83">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N10" s="83">
         <f t="shared" si="7"/>
-        <v>133.952</v>
+        <v>146.56800000000001</v>
       </c>
       <c r="O10" s="95"/>
       <c r="P10" s="95">
@@ -7496,19 +7496,19 @@
         <v>0</v>
       </c>
       <c r="Q10" s="84">
-        <v>7.25</v>
+        <v>29.75</v>
       </c>
       <c r="R10" s="95">
         <f t="shared" si="2"/>
-        <v>43.355000000000004</v>
+        <v>175.82249999999999</v>
       </c>
       <c r="S10" s="92">
         <f t="shared" ref="S10:S18" si="10">D10+F10+(G10/B$2)*C10+(H10/B$2)*C10+(I10/B$2)*C10+(J10/B$2)*C10+L10+N10+R10+P10</f>
-        <v>1186.4320000000002</v>
+        <v>1362.5505000000001</v>
       </c>
       <c r="T10" s="93">
         <f t="shared" si="4"/>
-        <v>1020</v>
+        <v>1172</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -7645,14 +7645,14 @@
         <v>61</v>
       </c>
       <c r="B11" s="96">
-        <v>6.57</v>
+        <v>6.5</v>
       </c>
       <c r="C11" s="70">
-        <v>180</v>
+        <v>172.75</v>
       </c>
       <c r="D11" s="88">
         <f t="shared" si="8"/>
-        <v>1182.6000000000001</v>
+        <v>1122.875</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="88">
@@ -7671,29 +7671,31 @@
         <v>0</v>
       </c>
       <c r="M11" s="99">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N11" s="89">
         <f t="shared" si="7"/>
-        <v>168.19200000000001</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="O11" s="86"/>
       <c r="P11" s="94">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="76"/>
+      <c r="Q11" s="76">
+        <v>11.25</v>
+      </c>
       <c r="R11" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>73.125</v>
       </c>
       <c r="S11" s="90">
         <f t="shared" si="10"/>
-        <v>1350.7920000000001</v>
+        <v>1346.8</v>
       </c>
       <c r="T11" s="91">
         <f t="shared" si="4"/>
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -7830,14 +7832,14 @@
         <v>62</v>
       </c>
       <c r="B12" s="97">
-        <v>5.38</v>
+        <v>5.32</v>
       </c>
       <c r="C12" s="80">
         <v>180</v>
       </c>
       <c r="D12" s="83">
         <f t="shared" si="8"/>
-        <v>968.4</v>
+        <v>957.6</v>
       </c>
       <c r="E12" s="82"/>
       <c r="F12" s="83">
@@ -7860,7 +7862,7 @@
       </c>
       <c r="N12" s="81">
         <f>B12*M12*40%</f>
-        <v>137.72800000000001</v>
+        <v>136.19200000000001</v>
       </c>
       <c r="O12" s="95"/>
       <c r="P12" s="95">
@@ -7872,15 +7874,15 @@
       </c>
       <c r="R12" s="95">
         <f t="shared" si="2"/>
-        <v>60.524999999999999</v>
+        <v>59.85</v>
       </c>
       <c r="S12" s="92">
         <f t="shared" si="10"/>
-        <v>1166.653</v>
+        <v>1153.6419999999998</v>
       </c>
       <c r="T12" s="93">
         <f t="shared" si="4"/>
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -8017,14 +8019,14 @@
         <v>63</v>
       </c>
       <c r="B13" s="96">
-        <v>5.98</v>
+        <v>5.91</v>
       </c>
       <c r="C13" s="70">
         <v>180</v>
       </c>
       <c r="D13" s="88">
         <f t="shared" si="8"/>
-        <v>1076.4000000000001</v>
+        <v>1063.8</v>
       </c>
       <c r="E13" s="57"/>
       <c r="F13" s="88">
@@ -8047,7 +8049,7 @@
       </c>
       <c r="N13" s="36">
         <f t="shared" ref="N13:N18" si="12">B13*M13*40%</f>
-        <v>153.08800000000002</v>
+        <v>151.29600000000002</v>
       </c>
       <c r="O13" s="86"/>
       <c r="P13" s="94">
@@ -8059,15 +8061,15 @@
       </c>
       <c r="R13" s="86">
         <f t="shared" si="2"/>
-        <v>67.275000000000006</v>
+        <v>66.487499999999997</v>
       </c>
       <c r="S13" s="90">
         <f t="shared" si="10"/>
-        <v>1296.7630000000001</v>
+        <v>1281.5835</v>
       </c>
       <c r="T13" s="91">
         <f t="shared" si="4"/>
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -8204,14 +8206,14 @@
         <v>64</v>
       </c>
       <c r="B14" s="97">
-        <v>5.98</v>
+        <v>5.91</v>
       </c>
       <c r="C14" s="80">
-        <v>33.75</v>
+        <v>168.75</v>
       </c>
       <c r="D14" s="83">
         <f t="shared" si="8"/>
-        <v>201.82500000000002</v>
+        <v>997.3125</v>
       </c>
       <c r="E14" s="82"/>
       <c r="F14" s="83">
@@ -8230,11 +8232,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="83">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="N14" s="81">
         <f t="shared" si="12"/>
-        <v>38.272000000000006</v>
+        <v>151.29600000000002</v>
       </c>
       <c r="O14" s="95"/>
       <c r="P14" s="95">
@@ -8242,19 +8244,19 @@
         <v>0</v>
       </c>
       <c r="Q14" s="84">
-        <v>4</v>
+        <v>15.25</v>
       </c>
       <c r="R14" s="95">
         <f t="shared" si="2"/>
-        <v>23.92</v>
+        <v>90.127499999999998</v>
       </c>
       <c r="S14" s="92">
         <f t="shared" si="10"/>
-        <v>264.01700000000005</v>
+        <v>1238.7360000000001</v>
       </c>
       <c r="T14" s="93">
         <f t="shared" si="4"/>
-        <v>227</v>
+        <v>1065</v>
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -8391,14 +8393,14 @@
         <v>56</v>
       </c>
       <c r="B15" s="96">
-        <v>6.88</v>
+        <v>6.79</v>
       </c>
       <c r="C15" s="70">
-        <v>188</v>
+        <v>172.75</v>
       </c>
       <c r="D15" s="88">
         <f t="shared" si="8"/>
-        <v>1293.44</v>
+        <v>1172.9725000000001</v>
       </c>
       <c r="E15" s="57"/>
       <c r="F15" s="88">
@@ -8417,11 +8419,11 @@
         <v>0</v>
       </c>
       <c r="M15" s="99">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="N15" s="36">
         <f t="shared" si="12"/>
-        <v>44.032000000000004</v>
+        <v>157.52800000000002</v>
       </c>
       <c r="O15" s="86"/>
       <c r="P15" s="94">
@@ -8429,19 +8431,19 @@
         <v>0</v>
       </c>
       <c r="Q15" s="76">
-        <v>8</v>
+        <v>11.25</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="2"/>
-        <v>55.04</v>
+        <v>76.387500000000003</v>
       </c>
       <c r="S15" s="90">
         <f t="shared" si="10"/>
-        <v>1392.5119999999999</v>
+        <v>1406.8880000000001</v>
       </c>
       <c r="T15" s="91">
         <f t="shared" si="4"/>
-        <v>1198</v>
+        <v>1210</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -8578,14 +8580,14 @@
         <v>65</v>
       </c>
       <c r="B16" s="97">
-        <v>6.88</v>
+        <v>6.79</v>
       </c>
       <c r="C16" s="80">
-        <v>172.75</v>
+        <v>176</v>
       </c>
       <c r="D16" s="83">
         <f>SUM(C16*B16)</f>
-        <v>1188.52</v>
+        <v>1195.04</v>
       </c>
       <c r="E16" s="82"/>
       <c r="F16" s="83">
@@ -8604,11 +8606,11 @@
         <v>0</v>
       </c>
       <c r="M16" s="83">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N16" s="81">
         <f t="shared" si="12"/>
-        <v>159.61600000000001</v>
+        <v>168.39200000000002</v>
       </c>
       <c r="O16" s="95"/>
       <c r="P16" s="95">
@@ -8616,19 +8618,19 @@
         <v>0</v>
       </c>
       <c r="Q16" s="84">
-        <v>7.25</v>
+        <v>29.75</v>
       </c>
       <c r="R16" s="95">
         <f t="shared" si="2"/>
-        <v>49.88</v>
+        <v>202.0025</v>
       </c>
       <c r="S16" s="92">
         <f t="shared" si="10"/>
-        <v>1398.0160000000001</v>
+        <v>1565.4345000000001</v>
       </c>
       <c r="T16" s="93">
         <f t="shared" si="4"/>
-        <v>1202</v>
+        <v>1346</v>
       </c>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -8765,14 +8767,14 @@
         <v>66</v>
       </c>
       <c r="B17" s="96">
-        <v>6.57</v>
+        <v>6.5</v>
       </c>
       <c r="C17" s="70">
-        <v>181</v>
+        <v>166.5</v>
       </c>
       <c r="D17" s="88">
         <f>SUM(C17*B17)</f>
-        <v>1189.17</v>
+        <v>1082.25</v>
       </c>
       <c r="E17" s="57"/>
       <c r="F17" s="88">
@@ -8788,7 +8790,7 @@
       </c>
       <c r="L17" s="88">
         <f t="shared" si="0"/>
-        <v>4.5250000000000004</v>
+        <v>4.1624999999999996</v>
       </c>
       <c r="M17" s="99"/>
       <c r="N17" s="36">
@@ -8800,18 +8802,20 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="76"/>
+      <c r="Q17" s="76">
+        <v>4</v>
+      </c>
       <c r="R17" s="86">
         <f>B17*Q17</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="S17" s="90">
         <f t="shared" si="10"/>
-        <v>1193.6950000000002</v>
+        <v>1112.4124999999999</v>
       </c>
       <c r="T17" s="91">
         <f t="shared" si="4"/>
-        <v>1027</v>
+        <v>957</v>
       </c>
     </row>
     <row r="18" spans="1:149" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -8819,14 +8823,14 @@
         <v>67</v>
       </c>
       <c r="B18" s="97">
-        <v>6.57</v>
+        <v>6.5</v>
       </c>
       <c r="C18" s="80">
-        <v>205.5</v>
+        <v>56.25</v>
       </c>
       <c r="D18" s="83">
         <f>SUM(C18*B18)</f>
-        <v>1350.135</v>
+        <v>365.625</v>
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="83">
@@ -8842,7 +8846,7 @@
       </c>
       <c r="L18" s="83">
         <f t="shared" si="0"/>
-        <v>5.1375000000000002</v>
+        <v>1.40625</v>
       </c>
       <c r="M18" s="83"/>
       <c r="N18" s="81">
@@ -8854,20 +8858,18 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="84">
-        <v>8</v>
-      </c>
+      <c r="Q18" s="84"/>
       <c r="R18" s="95">
         <f t="shared" ref="R18" si="13">B18*Q18</f>
-        <v>52.56</v>
+        <v>0</v>
       </c>
       <c r="S18" s="92">
         <f t="shared" si="10"/>
-        <v>1407.8325</v>
+        <v>367.03125</v>
       </c>
       <c r="T18" s="93">
         <f t="shared" si="4"/>
-        <v>1211</v>
+        <v>316</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -9005,7 +9007,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="49">
         <f>SUM(D5:D18)</f>
-        <v>14906.940000000002</v>
+        <v>14508.3675</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49">
@@ -9031,12 +9033,12 @@
       <c r="K19" s="48"/>
       <c r="L19" s="49">
         <f>SUM(L5:L18)</f>
-        <v>9.6625000000000014</v>
+        <v>5.5687499999999996</v>
       </c>
       <c r="M19" s="48"/>
       <c r="N19" s="49">
         <f>SUM(N5:N18)</f>
-        <v>987.96800000000007</v>
+        <v>1215.1600000000003</v>
       </c>
       <c r="O19" s="72"/>
       <c r="P19" s="72"/>
@@ -9044,11 +9046,11 @@
       <c r="R19" s="72"/>
       <c r="S19" s="50">
         <f>SUM(S5:S18)</f>
-        <v>16463.3655</v>
+        <v>16666.481250000004</v>
       </c>
       <c r="T19" s="51">
         <f>SUM(T5:T18)</f>
-        <v>14158</v>
+        <v>14333</v>
       </c>
       <c r="U19" s="52"/>
       <c r="V19" s="52"/>

--- a/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19188" yWindow="-12" windowWidth="9660" windowHeight="12312" activeTab="1"/>
+    <workbookView xWindow="19185" yWindow="-15" windowWidth="9660" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ШР УРФ" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -825,18 +825,39 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -844,9 +865,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,21 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1189,40 +1192,40 @@
       <selection pane="bottomRight" activeCell="B17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="4" customWidth="1"/>
     <col min="11" max="11" width="15" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="4" customWidth="1"/>
     <col min="18" max="18" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="3"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>250000</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="104"/>
+      <c r="D1" s="111"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -1362,17 +1365,17 @@
       <c r="EP1" s="7"/>
       <c r="EQ1" s="7"/>
     </row>
-    <row r="2" spans="1:147" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:147" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -1504,47 +1507,47 @@
       <c r="EP2" s="7"/>
       <c r="EQ2" s="7"/>
     </row>
-    <row r="3" spans="1:147" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+    <row r="3" spans="1:147" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="106" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106" t="s">
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106" t="s">
+      <c r="N3" s="103"/>
+      <c r="O3" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="110" t="s">
+      <c r="P3" s="103"/>
+      <c r="Q3" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="100" t="s">
+      <c r="R3" s="109" t="s">
         <v>47</v>
       </c>
       <c r="S3" s="7"/>
@@ -1677,13 +1680,13 @@
       <c r="EP3" s="7"/>
       <c r="EQ3" s="7"/>
     </row>
-    <row r="4" spans="1:147" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="108"/>
+    <row r="4" spans="1:147" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="103"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="114"/>
       <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
@@ -1714,8 +1717,8 @@
       <c r="P4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="101"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="110"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -1846,7 +1849,7 @@
       <c r="EP4" s="7"/>
       <c r="EQ4" s="7"/>
     </row>
-    <row r="5" spans="1:147" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:147" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -2048,7 +2051,7 @@
       <c r="EP5" s="7"/>
       <c r="EQ5" s="7"/>
     </row>
-    <row r="6" spans="1:147" s="28" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:147" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>21</v>
       </c>
@@ -2201,7 +2204,7 @@
       <c r="EP6" s="27"/>
       <c r="EQ6" s="27"/>
     </row>
-    <row r="7" spans="1:147" s="28" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:147" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>23</v>
       </c>
@@ -2352,7 +2355,7 @@
       <c r="EP7" s="27"/>
       <c r="EQ7" s="27"/>
     </row>
-    <row r="8" spans="1:147" s="39" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:147" s="39" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>24</v>
       </c>
@@ -2524,7 +2527,7 @@
       <c r="EP8" s="7"/>
       <c r="EQ8" s="7"/>
     </row>
-    <row r="9" spans="1:147" s="28" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:147" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>26</v>
       </c>
@@ -2678,7 +2681,7 @@
       <c r="EP9" s="27"/>
       <c r="EQ9" s="27"/>
     </row>
-    <row r="10" spans="1:147" s="39" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:147" s="39" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="40"/>
       <c r="C10" s="34"/>
@@ -2827,7 +2830,7 @@
       <c r="EP10" s="7"/>
       <c r="EQ10" s="7"/>
     </row>
-    <row r="11" spans="1:147" s="28" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:147" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>27</v>
       </c>
@@ -2981,14 +2984,14 @@
       <c r="EP11" s="27"/>
       <c r="EQ11" s="27"/>
     </row>
-    <row r="12" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
+    <row r="12" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="101" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="102">
         <v>2</v>
       </c>
       <c r="D12" s="62">
@@ -3166,12 +3169,12 @@
       <c r="EP12" s="7"/>
       <c r="EQ12" s="7"/>
     </row>
-    <row r="13" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="102"/>
+    <row r="13" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="101"/>
       <c r="B13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="62">
         <v>14400</v>
       </c>
@@ -3347,10 +3350,10 @@
       <c r="EP13" s="7"/>
       <c r="EQ13" s="7"/>
     </row>
-    <row r="14" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="102"/>
+    <row r="14" spans="1:147" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="101"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="103"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="62"/>
       <c r="E14" s="70"/>
       <c r="F14" s="42"/>
@@ -3496,14 +3499,14 @@
       <c r="EP14" s="7"/>
       <c r="EQ14" s="7"/>
     </row>
-    <row r="15" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111" t="s">
+    <row r="15" spans="1:147" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="105" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="113">
+      <c r="C15" s="107">
         <v>2</v>
       </c>
       <c r="D15" s="35">
@@ -3681,12 +3684,12 @@
       <c r="EP15" s="7"/>
       <c r="EQ15" s="7"/>
     </row>
-    <row r="16" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="112"/>
+    <row r="16" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="106"/>
       <c r="B16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="114"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="35">
         <v>22100</v>
       </c>
@@ -3860,14 +3863,14 @@
       <c r="EP16" s="7"/>
       <c r="EQ16" s="7"/>
     </row>
-    <row r="17" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="102" t="s">
+    <row r="17" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="101" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="103">
+      <c r="C17" s="102">
         <v>5</v>
       </c>
       <c r="D17" s="62">
@@ -4043,12 +4046,12 @@
       <c r="EP17" s="7"/>
       <c r="EQ17" s="7"/>
     </row>
-    <row r="18" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="102"/>
+    <row r="18" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="101"/>
       <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="62">
         <v>22100</v>
       </c>
@@ -4222,12 +4225,12 @@
       <c r="EP18" s="7"/>
       <c r="EQ18" s="7"/>
     </row>
-    <row r="19" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
+    <row r="19" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="101"/>
       <c r="B19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="103"/>
+      <c r="C19" s="102"/>
       <c r="D19" s="62">
         <v>22100</v>
       </c>
@@ -4398,12 +4401,12 @@
       <c r="EP19" s="7"/>
       <c r="EQ19" s="7"/>
     </row>
-    <row r="20" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="102"/>
+    <row r="20" spans="1:147" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="101"/>
       <c r="B20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="103"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="62">
         <v>22100</v>
       </c>
@@ -4579,12 +4582,12 @@
       <c r="EP20" s="7"/>
       <c r="EQ20" s="7"/>
     </row>
-    <row r="21" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
+    <row r="21" spans="1:147" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="101"/>
       <c r="B21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="103"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="62">
         <v>22100</v>
       </c>
@@ -4758,7 +4761,7 @@
       <c r="EP21" s="7"/>
       <c r="EQ21" s="7"/>
     </row>
-    <row r="22" spans="1:147" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:147" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
         <v>50</v>
       </c>
@@ -4939,7 +4942,7 @@
       <c r="EP22" s="7"/>
       <c r="EQ22" s="7"/>
     </row>
-    <row r="23" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>40</v>
       </c>
@@ -5117,7 +5120,7 @@
       <c r="EP23" s="7"/>
       <c r="EQ23" s="7"/>
     </row>
-    <row r="24" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>42</v>
       </c>
@@ -5300,7 +5303,7 @@
       <c r="EP24" s="7"/>
       <c r="EQ24" s="7"/>
     </row>
-    <row r="25" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
         <v>48</v>
       </c>
@@ -5475,7 +5478,7 @@
       <c r="EP25" s="7"/>
       <c r="EQ25" s="7"/>
     </row>
-    <row r="26" spans="1:147" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>44</v>
       </c>
@@ -5650,7 +5653,7 @@
       <c r="EP26" s="7"/>
       <c r="EQ26" s="7"/>
     </row>
-    <row r="27" spans="1:147" s="53" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:147" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>46</v>
       </c>
@@ -5836,13 +5839,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="C12:C14"/>
@@ -5856,6 +5852,13 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:L3"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5867,39 +5870,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ES21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="67" zoomScaleSheetLayoutView="67" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" style="3" customWidth="1"/>
-    <col min="14" max="16" width="12.44140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="78" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="3" customWidth="1"/>
+    <col min="14" max="16" width="12.42578125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="78" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="4" customWidth="1"/>
     <col min="20" max="20" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" style="3"/>
-    <col min="22" max="22" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="3"/>
+    <col min="21" max="21" width="9.140625" style="3"/>
+    <col min="22" max="22" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>25</v>
       </c>
@@ -6047,25 +6050,25 @@
       <c r="ER1" s="7"/>
       <c r="ES1" s="7"/>
     </row>
-    <row r="2" spans="1:149" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:149" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="5">
         <v>168</v>
       </c>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -6197,49 +6200,49 @@
       <c r="ER2" s="7"/>
       <c r="ES2" s="7"/>
     </row>
-    <row r="3" spans="1:149" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
+    <row r="3" spans="1:149" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="106" t="s">
+      <c r="F3" s="115"/>
+      <c r="G3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106" t="s">
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106" t="s">
+      <c r="L3" s="103"/>
+      <c r="M3" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="106"/>
-      <c r="O3" s="115" t="s">
+      <c r="N3" s="103"/>
+      <c r="O3" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="115" t="s">
+      <c r="P3" s="117"/>
+      <c r="Q3" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="116"/>
-      <c r="S3" s="110" t="s">
+      <c r="R3" s="117"/>
+      <c r="S3" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="100" t="s">
+      <c r="T3" s="109" t="s">
         <v>47</v>
       </c>
       <c r="U3" s="7"/>
@@ -6372,11 +6375,11 @@
       <c r="ER3" s="7"/>
       <c r="ES3" s="7"/>
     </row>
-    <row r="4" spans="1:149" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="108"/>
+    <row r="4" spans="1:149" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="113"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="66" t="s">
         <v>13</v>
       </c>
@@ -6419,8 +6422,8 @@
       <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="110"/>
-      <c r="T4" s="101"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="110"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -6551,7 +6554,7 @@
       <c r="ER4" s="7"/>
       <c r="ES4" s="7"/>
     </row>
-    <row r="5" spans="1:149" s="39" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:149" s="39" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>25</v>
       </c>
@@ -6715,7 +6718,7 @@
       <c r="ER5" s="7"/>
       <c r="ES5" s="7"/>
     </row>
-    <row r="6" spans="1:149" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:149" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>57</v>
       </c>
@@ -6723,11 +6726,11 @@
         <v>6.79</v>
       </c>
       <c r="C6" s="80">
-        <v>146.25</v>
+        <v>168.75</v>
       </c>
       <c r="D6" s="83">
         <f>SUM(C6*B6)</f>
-        <v>993.03750000000002</v>
+        <v>1145.8125</v>
       </c>
       <c r="E6" s="82"/>
       <c r="F6" s="83">
@@ -6764,11 +6767,11 @@
       </c>
       <c r="S6" s="92">
         <f t="shared" ref="S6:S8" si="3">D6+F6+(G6/B$2)*C6+(H6/B$2)*C6+(I6/B$2)*C6+(J6/B$2)*C6+L6+N6+R6+P6</f>
-        <v>1069.425</v>
+        <v>1222.2</v>
       </c>
       <c r="T6" s="93">
         <f t="shared" ref="T6:T18" si="4">ROUND(S6-(S6*14%),0)</f>
-        <v>920</v>
+        <v>1051</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -6900,7 +6903,7 @@
       <c r="ER6" s="7"/>
       <c r="ES6" s="7"/>
     </row>
-    <row r="7" spans="1:149" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:149" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>51</v>
       </c>
@@ -6908,11 +6911,11 @@
         <v>6.79</v>
       </c>
       <c r="C7" s="70">
-        <v>172</v>
+        <v>157.5</v>
       </c>
       <c r="D7" s="83">
         <f>SUM(C7*B7)</f>
-        <v>1167.8800000000001</v>
+        <v>1069.425</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="88">
@@ -6947,11 +6950,11 @@
       </c>
       <c r="S7" s="92">
         <f t="shared" si="3"/>
-        <v>1167.8800000000001</v>
+        <v>1069.425</v>
       </c>
       <c r="T7" s="91">
         <f t="shared" si="4"/>
-        <v>1004</v>
+        <v>920</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -7083,7 +7086,7 @@
       <c r="ER7" s="7"/>
       <c r="ES7" s="7"/>
     </row>
-    <row r="8" spans="1:149" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:149" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>58</v>
       </c>
@@ -7091,11 +7094,11 @@
         <v>5.91</v>
       </c>
       <c r="C8" s="80">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D8" s="83">
         <f>SUM(C8*B8)</f>
-        <v>939.69</v>
+        <v>1040.1600000000001</v>
       </c>
       <c r="E8" s="82"/>
       <c r="F8" s="83">
@@ -7130,11 +7133,11 @@
       </c>
       <c r="S8" s="92">
         <f t="shared" si="3"/>
-        <v>939.69</v>
+        <v>1040.1600000000001</v>
       </c>
       <c r="T8" s="93">
         <f t="shared" si="4"/>
-        <v>808</v>
+        <v>895</v>
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -7266,7 +7269,7 @@
       <c r="ER8" s="7"/>
       <c r="ES8" s="7"/>
     </row>
-    <row r="9" spans="1:149" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:149" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>59</v>
       </c>
@@ -7274,11 +7277,11 @@
         <v>5.98</v>
       </c>
       <c r="C9" s="70">
-        <v>168.75</v>
+        <v>180</v>
       </c>
       <c r="D9" s="88">
         <f>SUM(C9*B9)</f>
-        <v>1009.1250000000001</v>
+        <v>1076.4000000000001</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="88">
@@ -7308,20 +7311,18 @@
         <f>B9*O9</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="76">
-        <v>15.25</v>
-      </c>
+      <c r="Q9" s="76"/>
       <c r="R9" s="86">
         <f t="shared" si="2"/>
-        <v>91.195000000000007</v>
+        <v>0</v>
       </c>
       <c r="S9" s="90">
         <f>D9+F9+(G9/B$2)*C9+(H9/B$2)*C9+(I9/B$2)*C9+(J9/B$2)*C9+L9+N9+R9+P9</f>
-        <v>1253.4080000000001</v>
+        <v>1229.4880000000001</v>
       </c>
       <c r="T9" s="91">
         <f t="shared" si="4"/>
-        <v>1078</v>
+        <v>1057</v>
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -7453,7 +7454,7 @@
       <c r="ER9" s="7"/>
       <c r="ES9" s="7"/>
     </row>
-    <row r="10" spans="1:149" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:149" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
         <v>60</v>
       </c>
@@ -7461,11 +7462,11 @@
         <v>5.91</v>
       </c>
       <c r="C10" s="80">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D10" s="83">
         <f t="shared" ref="D10:D15" si="8">SUM(C10*B10)</f>
-        <v>1040.1600000000001</v>
+        <v>1063.8</v>
       </c>
       <c r="E10" s="82"/>
       <c r="F10" s="83">
@@ -7484,31 +7485,29 @@
         <v>0</v>
       </c>
       <c r="M10" s="83">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N10" s="83">
         <f t="shared" si="7"/>
-        <v>146.56800000000001</v>
+        <v>151.29600000000002</v>
       </c>
       <c r="O10" s="95"/>
       <c r="P10" s="95">
         <f t="shared" ref="P10:P18" si="9">B10*O10</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="84">
-        <v>29.75</v>
-      </c>
+      <c r="Q10" s="84"/>
       <c r="R10" s="95">
         <f t="shared" si="2"/>
-        <v>175.82249999999999</v>
+        <v>0</v>
       </c>
       <c r="S10" s="92">
         <f t="shared" ref="S10:S18" si="10">D10+F10+(G10/B$2)*C10+(H10/B$2)*C10+(I10/B$2)*C10+(J10/B$2)*C10+L10+N10+R10+P10</f>
-        <v>1362.5505000000001</v>
+        <v>1215.096</v>
       </c>
       <c r="T10" s="93">
         <f t="shared" si="4"/>
-        <v>1172</v>
+        <v>1045</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -7640,7 +7639,7 @@
       <c r="ER10" s="7"/>
       <c r="ES10" s="7"/>
     </row>
-    <row r="11" spans="1:149" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:149" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>61</v>
       </c>
@@ -7648,11 +7647,11 @@
         <v>6.5</v>
       </c>
       <c r="C11" s="70">
-        <v>172.75</v>
+        <v>168.75</v>
       </c>
       <c r="D11" s="88">
         <f t="shared" si="8"/>
-        <v>1122.875</v>
+        <v>1096.875</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="88">
@@ -7671,11 +7670,11 @@
         <v>0</v>
       </c>
       <c r="M11" s="99">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="N11" s="89">
         <f t="shared" si="7"/>
-        <v>150.80000000000001</v>
+        <v>166.4</v>
       </c>
       <c r="O11" s="86"/>
       <c r="P11" s="94">
@@ -7691,11 +7690,11 @@
       </c>
       <c r="S11" s="90">
         <f t="shared" si="10"/>
-        <v>1346.8</v>
+        <v>1336.4</v>
       </c>
       <c r="T11" s="91">
         <f t="shared" si="4"/>
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -7827,7 +7826,7 @@
       <c r="ER11" s="7"/>
       <c r="ES11" s="7"/>
     </row>
-    <row r="12" spans="1:149" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:149" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>62</v>
       </c>
@@ -7835,11 +7834,11 @@
         <v>5.32</v>
       </c>
       <c r="C12" s="80">
-        <v>180</v>
+        <v>161.5</v>
       </c>
       <c r="D12" s="83">
         <f t="shared" si="8"/>
-        <v>957.6</v>
+        <v>859.18000000000006</v>
       </c>
       <c r="E12" s="82"/>
       <c r="F12" s="83">
@@ -7858,31 +7857,29 @@
         <v>0</v>
       </c>
       <c r="M12" s="83">
-        <v>64</v>
-      </c>
-      <c r="N12" s="81">
+        <v>50</v>
+      </c>
+      <c r="N12" s="83">
         <f>B12*M12*40%</f>
-        <v>136.19200000000001</v>
+        <v>106.4</v>
       </c>
       <c r="O12" s="95"/>
       <c r="P12" s="95">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="84">
-        <v>11.25</v>
-      </c>
+      <c r="Q12" s="84"/>
       <c r="R12" s="95">
         <f t="shared" si="2"/>
-        <v>59.85</v>
+        <v>0</v>
       </c>
       <c r="S12" s="92">
         <f t="shared" si="10"/>
-        <v>1153.6419999999998</v>
+        <v>965.58</v>
       </c>
       <c r="T12" s="93">
         <f t="shared" si="4"/>
-        <v>992</v>
+        <v>830</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -8014,7 +8011,7 @@
       <c r="ER12" s="7"/>
       <c r="ES12" s="7"/>
     </row>
-    <row r="13" spans="1:149" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:149" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>63</v>
       </c>
@@ -8022,11 +8019,11 @@
         <v>5.91</v>
       </c>
       <c r="C13" s="70">
-        <v>180</v>
+        <v>187.25</v>
       </c>
       <c r="D13" s="88">
         <f t="shared" si="8"/>
-        <v>1063.8</v>
+        <v>1106.6475</v>
       </c>
       <c r="E13" s="57"/>
       <c r="F13" s="88">
@@ -8045,11 +8042,11 @@
         <v>0</v>
       </c>
       <c r="M13" s="99">
-        <v>64</v>
-      </c>
-      <c r="N13" s="36">
+        <v>38</v>
+      </c>
+      <c r="N13" s="100">
         <f t="shared" ref="N13:N18" si="12">B13*M13*40%</f>
-        <v>151.29600000000002</v>
+        <v>89.832000000000008</v>
       </c>
       <c r="O13" s="86"/>
       <c r="P13" s="94">
@@ -8057,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="Q13" s="76">
-        <v>11.25</v>
+        <v>4</v>
       </c>
       <c r="R13" s="86">
         <f t="shared" si="2"/>
-        <v>66.487499999999997</v>
+        <v>23.64</v>
       </c>
       <c r="S13" s="90">
         <f t="shared" si="10"/>
-        <v>1281.5835</v>
+        <v>1220.1195000000002</v>
       </c>
       <c r="T13" s="91">
         <f t="shared" si="4"/>
-        <v>1102</v>
+        <v>1049</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -8201,7 +8198,7 @@
       <c r="ER13" s="7"/>
       <c r="ES13" s="7"/>
     </row>
-    <row r="14" spans="1:149" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:149" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>64</v>
       </c>
@@ -8209,11 +8206,11 @@
         <v>5.91</v>
       </c>
       <c r="C14" s="80">
-        <v>168.75</v>
+        <v>172.75</v>
       </c>
       <c r="D14" s="83">
         <f t="shared" si="8"/>
-        <v>997.3125</v>
+        <v>1020.9525</v>
       </c>
       <c r="E14" s="82"/>
       <c r="F14" s="83">
@@ -8232,11 +8229,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="83">
-        <v>64</v>
-      </c>
-      <c r="N14" s="81">
+        <v>58</v>
+      </c>
+      <c r="N14" s="83">
         <f t="shared" si="12"/>
-        <v>151.29600000000002</v>
+        <v>137.11200000000002</v>
       </c>
       <c r="O14" s="95"/>
       <c r="P14" s="95">
@@ -8244,19 +8241,19 @@
         <v>0</v>
       </c>
       <c r="Q14" s="84">
-        <v>15.25</v>
+        <v>7.25</v>
       </c>
       <c r="R14" s="95">
         <f t="shared" si="2"/>
-        <v>90.127499999999998</v>
+        <v>42.847500000000004</v>
       </c>
       <c r="S14" s="92">
         <f t="shared" si="10"/>
-        <v>1238.7360000000001</v>
+        <v>1200.912</v>
       </c>
       <c r="T14" s="93">
         <f t="shared" si="4"/>
-        <v>1065</v>
+        <v>1033</v>
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -8388,7 +8385,7 @@
       <c r="ER14" s="7"/>
       <c r="ES14" s="7"/>
     </row>
-    <row r="15" spans="1:149" s="44" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:149" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>56</v>
       </c>
@@ -8396,11 +8393,11 @@
         <v>6.79</v>
       </c>
       <c r="C15" s="70">
-        <v>172.75</v>
+        <v>168.75</v>
       </c>
       <c r="D15" s="88">
         <f t="shared" si="8"/>
-        <v>1172.9725000000001</v>
+        <v>1145.8125</v>
       </c>
       <c r="E15" s="57"/>
       <c r="F15" s="88">
@@ -8419,11 +8416,11 @@
         <v>0</v>
       </c>
       <c r="M15" s="99">
-        <v>58</v>
-      </c>
-      <c r="N15" s="36">
+        <v>64</v>
+      </c>
+      <c r="N15" s="100">
         <f t="shared" si="12"/>
-        <v>157.52800000000002</v>
+        <v>173.82400000000001</v>
       </c>
       <c r="O15" s="86"/>
       <c r="P15" s="94">
@@ -8439,11 +8436,11 @@
       </c>
       <c r="S15" s="90">
         <f t="shared" si="10"/>
-        <v>1406.8880000000001</v>
+        <v>1396.0240000000001</v>
       </c>
       <c r="T15" s="91">
         <f t="shared" si="4"/>
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -8575,7 +8572,7 @@
       <c r="ER15" s="7"/>
       <c r="ES15" s="7"/>
     </row>
-    <row r="16" spans="1:149" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:149" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="79" t="s">
         <v>65</v>
       </c>
@@ -8583,11 +8580,11 @@
         <v>6.79</v>
       </c>
       <c r="C16" s="80">
-        <v>176</v>
+        <v>157.5</v>
       </c>
       <c r="D16" s="83">
         <f>SUM(C16*B16)</f>
-        <v>1195.04</v>
+        <v>1069.425</v>
       </c>
       <c r="E16" s="82"/>
       <c r="F16" s="83">
@@ -8606,31 +8603,29 @@
         <v>0</v>
       </c>
       <c r="M16" s="83">
-        <v>62</v>
-      </c>
-      <c r="N16" s="81">
+        <v>64</v>
+      </c>
+      <c r="N16" s="83">
         <f t="shared" si="12"/>
-        <v>168.39200000000002</v>
+        <v>173.82400000000001</v>
       </c>
       <c r="O16" s="95"/>
       <c r="P16" s="95">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="84">
-        <v>29.75</v>
-      </c>
+      <c r="Q16" s="84"/>
       <c r="R16" s="95">
         <f t="shared" si="2"/>
-        <v>202.0025</v>
+        <v>0</v>
       </c>
       <c r="S16" s="92">
         <f t="shared" si="10"/>
-        <v>1565.4345000000001</v>
+        <v>1243.249</v>
       </c>
       <c r="T16" s="93">
         <f t="shared" si="4"/>
-        <v>1346</v>
+        <v>1069</v>
       </c>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -8762,7 +8757,7 @@
       <c r="ER16" s="7"/>
       <c r="ES16" s="7"/>
     </row>
-    <row r="17" spans="1:149" s="7" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:149" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>66</v>
       </c>
@@ -8770,11 +8765,11 @@
         <v>6.5</v>
       </c>
       <c r="C17" s="70">
-        <v>166.5</v>
+        <v>180</v>
       </c>
       <c r="D17" s="88">
         <f>SUM(C17*B17)</f>
-        <v>1082.25</v>
+        <v>1170</v>
       </c>
       <c r="E17" s="57"/>
       <c r="F17" s="88">
@@ -8790,7 +8785,7 @@
       </c>
       <c r="L17" s="88">
         <f t="shared" si="0"/>
-        <v>4.1624999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="M17" s="99"/>
       <c r="N17" s="36">
@@ -8802,23 +8797,21 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="76">
-        <v>4</v>
-      </c>
+      <c r="Q17" s="76"/>
       <c r="R17" s="86">
         <f>B17*Q17</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="S17" s="90">
         <f t="shared" si="10"/>
-        <v>1112.4124999999999</v>
+        <v>1174.5</v>
       </c>
       <c r="T17" s="91">
         <f t="shared" si="4"/>
-        <v>957</v>
+        <v>1010</v>
       </c>
     </row>
-    <row r="18" spans="1:149" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:149" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="79" t="s">
         <v>67</v>
       </c>
@@ -8826,11 +8819,11 @@
         <v>6.5</v>
       </c>
       <c r="C18" s="80">
-        <v>56.25</v>
+        <v>168.75</v>
       </c>
       <c r="D18" s="83">
         <f>SUM(C18*B18)</f>
-        <v>365.625</v>
+        <v>1096.875</v>
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="83">
@@ -8846,7 +8839,7 @@
       </c>
       <c r="L18" s="83">
         <f t="shared" si="0"/>
-        <v>1.40625</v>
+        <v>4.21875</v>
       </c>
       <c r="M18" s="83"/>
       <c r="N18" s="81">
@@ -8858,18 +8851,20 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="84"/>
+      <c r="Q18" s="84">
+        <v>11.25</v>
+      </c>
       <c r="R18" s="95">
         <f t="shared" ref="R18" si="13">B18*Q18</f>
-        <v>0</v>
+        <v>73.125</v>
       </c>
       <c r="S18" s="92">
         <f t="shared" si="10"/>
-        <v>367.03125</v>
+        <v>1174.21875</v>
       </c>
       <c r="T18" s="93">
         <f t="shared" si="4"/>
-        <v>316</v>
+        <v>1010</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -9001,13 +8996,13 @@
       <c r="ER18" s="7"/>
       <c r="ES18" s="7"/>
     </row>
-    <row r="19" spans="1:149" s="53" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:149" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49">
         <f>SUM(D5:D18)</f>
-        <v>14508.3675</v>
+        <v>15362.364999999998</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49">
@@ -9033,12 +9028,12 @@
       <c r="K19" s="48"/>
       <c r="L19" s="49">
         <f>SUM(L5:L18)</f>
-        <v>5.5687499999999996</v>
+        <v>8.71875</v>
       </c>
       <c r="M19" s="48"/>
       <c r="N19" s="49">
         <f>SUM(N5:N18)</f>
-        <v>1215.1600000000003</v>
+        <v>1151.7760000000001</v>
       </c>
       <c r="O19" s="72"/>
       <c r="P19" s="72"/>
@@ -9046,11 +9041,11 @@
       <c r="R19" s="72"/>
       <c r="S19" s="50">
         <f>SUM(S5:S18)</f>
-        <v>16666.481250000004</v>
+        <v>16888.37225</v>
       </c>
       <c r="T19" s="51">
         <f>SUM(T5:T18)</f>
-        <v>14333</v>
+        <v>14524</v>
       </c>
       <c r="U19" s="52"/>
       <c r="V19" s="52"/>
@@ -9182,8 +9177,8 @@
       <c r="ER19" s="52"/>
       <c r="ES19" s="52"/>
     </row>
-    <row r="20" spans="1:149" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:149" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:149" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:149" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>0</v>
       </c>

--- a/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DB79B2-4AA8-4261-8C13-4056452BD45A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19185" yWindow="-15" windowWidth="9660" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ШР УРФ" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Контракт!$A$1:$T$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -229,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -828,15 +836,36 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,27 +880,6 @@
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -972,6 +980,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1007,6 +1032,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1182,7 +1224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EQ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1222,10 +1264,10 @@
       <c r="B1" s="2">
         <v>250000</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="111"/>
+      <c r="D1" s="105"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -1368,14 +1410,14 @@
     <row r="2" spans="1:147" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -1508,46 +1550,46 @@
       <c r="EQ2" s="7"/>
     </row>
     <row r="3" spans="1:147" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="115"/>
-      <c r="I3" s="103" t="s">
+      <c r="H3" s="110"/>
+      <c r="I3" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103" t="s">
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103" t="s">
+      <c r="N3" s="107"/>
+      <c r="O3" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="104" t="s">
+      <c r="P3" s="107"/>
+      <c r="Q3" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="109" t="s">
+      <c r="R3" s="101" t="s">
         <v>47</v>
       </c>
       <c r="S3" s="7"/>
@@ -1681,12 +1723,12 @@
       <c r="EQ3" s="7"/>
     </row>
     <row r="4" spans="1:147" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="114"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
@@ -1717,8 +1759,8 @@
       <c r="P4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="110"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="102"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -2985,13 +3027,13 @@
       <c r="EQ11" s="27"/>
     </row>
     <row r="12" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="102">
+      <c r="C12" s="104">
         <v>2</v>
       </c>
       <c r="D12" s="62">
@@ -3170,11 +3212,11 @@
       <c r="EQ12" s="7"/>
     </row>
     <row r="13" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="101"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="102"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="62">
         <v>14400</v>
       </c>
@@ -3351,9 +3393,9 @@
       <c r="EQ13" s="7"/>
     </row>
     <row r="14" spans="1:147" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="102"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="62"/>
       <c r="E14" s="70"/>
       <c r="F14" s="42"/>
@@ -3500,13 +3542,13 @@
       <c r="EQ14" s="7"/>
     </row>
     <row r="15" spans="1:147" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="112" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="107">
+      <c r="C15" s="114">
         <v>2</v>
       </c>
       <c r="D15" s="35">
@@ -3685,11 +3727,11 @@
       <c r="EQ15" s="7"/>
     </row>
     <row r="16" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="108"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="35">
         <v>22100</v>
       </c>
@@ -3864,13 +3906,13 @@
       <c r="EQ16" s="7"/>
     </row>
     <row r="17" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="103" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="102">
+      <c r="C17" s="104">
         <v>5</v>
       </c>
       <c r="D17" s="62">
@@ -4047,11 +4089,11 @@
       <c r="EQ17" s="7"/>
     </row>
     <row r="18" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
+      <c r="A18" s="103"/>
       <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="102"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="62">
         <v>22100</v>
       </c>
@@ -4226,11 +4268,11 @@
       <c r="EQ18" s="7"/>
     </row>
     <row r="19" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
+      <c r="A19" s="103"/>
       <c r="B19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="102"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="62">
         <v>22100</v>
       </c>
@@ -4402,11 +4444,11 @@
       <c r="EQ19" s="7"/>
     </row>
     <row r="20" spans="1:147" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="102"/>
+      <c r="C20" s="104"/>
       <c r="D20" s="62">
         <v>22100</v>
       </c>
@@ -4583,11 +4625,11 @@
       <c r="EQ20" s="7"/>
     </row>
     <row r="21" spans="1:147" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="62">
         <v>22100</v>
       </c>
@@ -5839,6 +5881,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="C12:C14"/>
@@ -5852,13 +5901,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:L3"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5867,14 +5909,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:ES21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6057,18 +6099,18 @@
       <c r="B2" s="5">
         <v>168</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -6201,36 +6243,36 @@
       <c r="ES2" s="7"/>
     </row>
     <row r="3" spans="1:149" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="103" t="s">
+      <c r="F3" s="110"/>
+      <c r="G3" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103" t="s">
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103" t="s">
+      <c r="L3" s="107"/>
+      <c r="M3" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="103"/>
+      <c r="N3" s="107"/>
       <c r="O3" s="116" t="s">
         <v>55</v>
       </c>
@@ -6239,10 +6281,10 @@
         <v>52</v>
       </c>
       <c r="R3" s="117"/>
-      <c r="S3" s="104" t="s">
+      <c r="S3" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="109" t="s">
+      <c r="T3" s="101" t="s">
         <v>47</v>
       </c>
       <c r="U3" s="7"/>
@@ -6376,10 +6418,10 @@
       <c r="ES3" s="7"/>
     </row>
     <row r="4" spans="1:149" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="114"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="66" t="s">
         <v>13</v>
       </c>
@@ -6422,8 +6464,8 @@
       <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="104"/>
-      <c r="T4" s="110"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="102"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -6758,20 +6800,18 @@
         <f t="shared" ref="P6:P8" si="1">B6*O6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="84">
-        <v>11.25</v>
-      </c>
+      <c r="Q6" s="84"/>
       <c r="R6" s="95">
         <f t="shared" ref="R6:R16" si="2">B6*Q6</f>
-        <v>76.387500000000003</v>
+        <v>0</v>
       </c>
       <c r="S6" s="92">
         <f t="shared" ref="S6:S8" si="3">D6+F6+(G6/B$2)*C6+(H6/B$2)*C6+(I6/B$2)*C6+(J6/B$2)*C6+L6+N6+R6+P6</f>
-        <v>1222.2</v>
+        <v>1145.8125</v>
       </c>
       <c r="T6" s="93">
         <f t="shared" ref="T6:T18" si="4">ROUND(S6-(S6*14%),0)</f>
-        <v>1051</v>
+        <v>985</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -6911,11 +6951,11 @@
         <v>6.79</v>
       </c>
       <c r="C7" s="70">
-        <v>157.5</v>
+        <v>168.75</v>
       </c>
       <c r="D7" s="83">
         <f>SUM(C7*B7)</f>
-        <v>1069.425</v>
+        <v>1145.8125</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="88">
@@ -6950,11 +6990,11 @@
       </c>
       <c r="S7" s="92">
         <f t="shared" si="3"/>
-        <v>1069.425</v>
+        <v>1145.8125</v>
       </c>
       <c r="T7" s="91">
         <f t="shared" si="4"/>
-        <v>920</v>
+        <v>985</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -7277,11 +7317,11 @@
         <v>5.98</v>
       </c>
       <c r="C9" s="70">
-        <v>180</v>
+        <v>164.75</v>
       </c>
       <c r="D9" s="88">
         <f>SUM(C9*B9)</f>
-        <v>1076.4000000000001</v>
+        <v>985.20500000000004</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="88">
@@ -7300,11 +7340,11 @@
         <v>0</v>
       </c>
       <c r="M9" s="99">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N9" s="89">
         <f t="shared" si="7"/>
-        <v>153.08800000000002</v>
+        <v>129.16800000000001</v>
       </c>
       <c r="O9" s="86"/>
       <c r="P9" s="94">
@@ -7318,11 +7358,11 @@
       </c>
       <c r="S9" s="90">
         <f>D9+F9+(G9/B$2)*C9+(H9/B$2)*C9+(I9/B$2)*C9+(J9/B$2)*C9+L9+N9+R9+P9</f>
-        <v>1229.4880000000001</v>
+        <v>1114.373</v>
       </c>
       <c r="T9" s="91">
         <f t="shared" si="4"/>
-        <v>1057</v>
+        <v>958</v>
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -8393,11 +8433,11 @@
         <v>6.79</v>
       </c>
       <c r="C15" s="70">
-        <v>168.75</v>
+        <v>191.25</v>
       </c>
       <c r="D15" s="88">
         <f t="shared" si="8"/>
-        <v>1145.8125</v>
+        <v>1298.5875000000001</v>
       </c>
       <c r="E15" s="57"/>
       <c r="F15" s="88">
@@ -8436,11 +8476,11 @@
       </c>
       <c r="S15" s="90">
         <f t="shared" si="10"/>
-        <v>1396.0240000000001</v>
+        <v>1548.7990000000002</v>
       </c>
       <c r="T15" s="91">
         <f t="shared" si="4"/>
-        <v>1201</v>
+        <v>1332</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -8819,11 +8859,11 @@
         <v>6.5</v>
       </c>
       <c r="C18" s="80">
-        <v>168.75</v>
+        <v>180</v>
       </c>
       <c r="D18" s="83">
         <f>SUM(C18*B18)</f>
-        <v>1096.875</v>
+        <v>1170</v>
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="83">
@@ -8839,7 +8879,7 @@
       </c>
       <c r="L18" s="83">
         <f t="shared" si="0"/>
-        <v>4.21875</v>
+        <v>4.5</v>
       </c>
       <c r="M18" s="83"/>
       <c r="N18" s="81">
@@ -8851,16 +8891,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="84">
-        <v>11.25</v>
-      </c>
+      <c r="Q18" s="84"/>
       <c r="R18" s="95">
         <f t="shared" ref="R18" si="13">B18*Q18</f>
-        <v>73.125</v>
+        <v>0</v>
       </c>
       <c r="S18" s="92">
         <f t="shared" si="10"/>
-        <v>1174.21875</v>
+        <v>1174.5</v>
       </c>
       <c r="T18" s="93">
         <f t="shared" si="4"/>
@@ -9002,7 +9040,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="49">
         <f>SUM(D5:D18)</f>
-        <v>15362.364999999998</v>
+        <v>15573.457499999999</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49">
@@ -9028,12 +9066,12 @@
       <c r="K19" s="48"/>
       <c r="L19" s="49">
         <f>SUM(L5:L18)</f>
-        <v>8.71875</v>
+        <v>9</v>
       </c>
       <c r="M19" s="48"/>
       <c r="N19" s="49">
         <f>SUM(N5:N18)</f>
-        <v>1151.7760000000001</v>
+        <v>1127.8560000000002</v>
       </c>
       <c r="O19" s="72"/>
       <c r="P19" s="72"/>
@@ -9041,11 +9079,11 @@
       <c r="R19" s="72"/>
       <c r="S19" s="50">
         <f>SUM(S5:S18)</f>
-        <v>16888.37225</v>
+        <v>16926.3135</v>
       </c>
       <c r="T19" s="51">
         <f>SUM(T5:T18)</f>
-        <v>14524</v>
+        <v>14555</v>
       </c>
       <c r="U19" s="52"/>
       <c r="V19" s="52"/>

--- a/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
+++ b/Участок ремонта форм/Документация/Табель/ШР Участок ремонта форм.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DB79B2-4AA8-4261-8C13-4056452BD45A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5D055F-6BEE-45F3-A27C-B9454A6B87DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -836,18 +836,36 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -855,9 +873,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,21 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1264,10 +1264,10 @@
       <c r="B1" s="2">
         <v>250000</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="105"/>
+      <c r="D1" s="111"/>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -1410,14 +1410,14 @@
     <row r="2" spans="1:147" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -1550,46 +1550,46 @@
       <c r="EQ2" s="7"/>
     </row>
     <row r="3" spans="1:147" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="107" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107" t="s">
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107" t="s">
+      <c r="N3" s="103"/>
+      <c r="O3" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="111" t="s">
+      <c r="P3" s="103"/>
+      <c r="Q3" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="101" t="s">
+      <c r="R3" s="109" t="s">
         <v>47</v>
       </c>
       <c r="S3" s="7"/>
@@ -1723,12 +1723,12 @@
       <c r="EQ3" s="7"/>
     </row>
     <row r="4" spans="1:147" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="109"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="114"/>
       <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
@@ -1759,8 +1759,8 @@
       <c r="P4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="102"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="110"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -3027,13 +3027,13 @@
       <c r="EQ11" s="27"/>
     </row>
     <row r="12" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="101" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="104">
+      <c r="C12" s="102">
         <v>2</v>
       </c>
       <c r="D12" s="62">
@@ -3212,11 +3212,11 @@
       <c r="EQ12" s="7"/>
     </row>
     <row r="13" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="104"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="62">
         <v>14400</v>
       </c>
@@ -3393,9 +3393,9 @@
       <c r="EQ13" s="7"/>
     </row>
     <row r="14" spans="1:147" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="104"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="62"/>
       <c r="E14" s="70"/>
       <c r="F14" s="42"/>
@@ -3542,13 +3542,13 @@
       <c r="EQ14" s="7"/>
     </row>
     <row r="15" spans="1:147" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="105" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="114">
+      <c r="C15" s="107">
         <v>2</v>
       </c>
       <c r="D15" s="35">
@@ -3727,11 +3727,11 @@
       <c r="EQ15" s="7"/>
     </row>
     <row r="16" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="113"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="115"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="35">
         <v>22100</v>
       </c>
@@ -3906,13 +3906,13 @@
       <c r="EQ16" s="7"/>
     </row>
     <row r="17" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="101" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="102">
         <v>5</v>
       </c>
       <c r="D17" s="62">
@@ -4089,11 +4089,11 @@
       <c r="EQ17" s="7"/>
     </row>
     <row r="18" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="104"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="62">
         <v>22100</v>
       </c>
@@ -4268,11 +4268,11 @@
       <c r="EQ18" s="7"/>
     </row>
     <row r="19" spans="1:147" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="102"/>
       <c r="D19" s="62">
         <v>22100</v>
       </c>
@@ -4444,11 +4444,11 @@
       <c r="EQ19" s="7"/>
     </row>
     <row r="20" spans="1:147" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="104"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="62">
         <v>22100</v>
       </c>
@@ -4625,11 +4625,11 @@
       <c r="EQ20" s="7"/>
     </row>
     <row r="21" spans="1:147" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="104"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="62">
         <v>22100</v>
       </c>
@@ -5881,13 +5881,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="C12:C14"/>
@@ -5901,6 +5894,13 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:L3"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5916,7 +5916,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D4"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6099,18 +6099,18 @@
       <c r="B2" s="5">
         <v>168</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -6243,36 +6243,36 @@
       <c r="ES2" s="7"/>
     </row>
     <row r="3" spans="1:149" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="107" t="s">
+      <c r="F3" s="115"/>
+      <c r="G3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107" t="s">
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107" t="s">
+      <c r="L3" s="103"/>
+      <c r="M3" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="107"/>
+      <c r="N3" s="103"/>
       <c r="O3" s="116" t="s">
         <v>55</v>
       </c>
@@ -6281,10 +6281,10 @@
         <v>52</v>
       </c>
       <c r="R3" s="117"/>
-      <c r="S3" s="111" t="s">
+      <c r="S3" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="101" t="s">
+      <c r="T3" s="109" t="s">
         <v>47</v>
       </c>
       <c r="U3" s="7"/>
@@ -6418,10 +6418,10 @@
       <c r="ES3" s="7"/>
     </row>
     <row r="4" spans="1:149" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="109"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="66" t="s">
         <v>13</v>
       </c>
@@ -6464,8 +6464,8 @@
       <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="111"/>
-      <c r="T4" s="102"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="110"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -7134,11 +7134,11 @@
         <v>5.91</v>
       </c>
       <c r="C8" s="80">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D8" s="83">
         <f>SUM(C8*B8)</f>
-        <v>1040.1600000000001</v>
+        <v>992.88</v>
       </c>
       <c r="E8" s="82"/>
       <c r="F8" s="83">
@@ -7173,11 +7173,11 @@
       </c>
       <c r="S8" s="92">
         <f t="shared" si="3"/>
-        <v>1040.1600000000001</v>
+        <v>992.88</v>
       </c>
       <c r="T8" s="93">
         <f t="shared" si="4"/>
-        <v>895</v>
+        <v>854</v>
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -7314,14 +7314,14 @@
         <v>59</v>
       </c>
       <c r="B9" s="96">
-        <v>5.98</v>
+        <v>5.91</v>
       </c>
       <c r="C9" s="70">
         <v>164.75</v>
       </c>
       <c r="D9" s="88">
         <f>SUM(C9*B9)</f>
-        <v>985.20500000000004</v>
+        <v>973.67250000000001</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="88">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="N9" s="89">
         <f t="shared" si="7"/>
-        <v>129.16800000000001</v>
+        <v>127.65600000000001</v>
       </c>
       <c r="O9" s="86"/>
       <c r="P9" s="94">
@@ -7358,11 +7358,11 @@
       </c>
       <c r="S9" s="90">
         <f>D9+F9+(G9/B$2)*C9+(H9/B$2)*C9+(I9/B$2)*C9+(J9/B$2)*C9+L9+N9+R9+P9</f>
-        <v>1114.373</v>
+        <v>1101.3285000000001</v>
       </c>
       <c r="T9" s="91">
         <f t="shared" si="4"/>
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -7502,11 +7502,11 @@
         <v>5.91</v>
       </c>
       <c r="C10" s="80">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D10" s="83">
         <f t="shared" ref="D10:D15" si="8">SUM(C10*B10)</f>
-        <v>1063.8</v>
+        <v>992.88</v>
       </c>
       <c r="E10" s="82"/>
       <c r="F10" s="83">
@@ -7525,11 +7525,11 @@
         <v>0</v>
       </c>
       <c r="M10" s="83">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N10" s="83">
         <f t="shared" si="7"/>
-        <v>151.29600000000002</v>
+        <v>137.11200000000002</v>
       </c>
       <c r="O10" s="95"/>
       <c r="P10" s="95">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="S10" s="92">
         <f t="shared" ref="S10:S18" si="10">D10+F10+(G10/B$2)*C10+(H10/B$2)*C10+(I10/B$2)*C10+(J10/B$2)*C10+L10+N10+R10+P10</f>
-        <v>1215.096</v>
+        <v>1129.992</v>
       </c>
       <c r="T10" s="93">
         <f t="shared" si="4"/>
-        <v>1045</v>
+        <v>972</v>
       </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -7687,11 +7687,11 @@
         <v>6.5</v>
       </c>
       <c r="C11" s="70">
-        <v>168.75</v>
+        <v>168</v>
       </c>
       <c r="D11" s="88">
         <f t="shared" si="8"/>
-        <v>1096.875</v>
+        <v>1092</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="88">
@@ -7721,20 +7721,18 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="76">
-        <v>11.25</v>
-      </c>
+      <c r="Q11" s="76"/>
       <c r="R11" s="86">
         <f t="shared" si="2"/>
-        <v>73.125</v>
+        <v>0</v>
       </c>
       <c r="S11" s="90">
         <f t="shared" si="10"/>
-        <v>1336.4</v>
+        <v>1258.4000000000001</v>
       </c>
       <c r="T11" s="91">
         <f t="shared" si="4"/>
-        <v>1149</v>
+        <v>1082</v>
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -7874,11 +7872,11 @@
         <v>5.32</v>
       </c>
       <c r="C12" s="80">
-        <v>161.5</v>
+        <v>168</v>
       </c>
       <c r="D12" s="83">
         <f t="shared" si="8"/>
-        <v>859.18000000000006</v>
+        <v>893.76</v>
       </c>
       <c r="E12" s="82"/>
       <c r="F12" s="83">
@@ -7897,11 +7895,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="83">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N12" s="83">
         <f>B12*M12*40%</f>
-        <v>106.4</v>
+        <v>0</v>
       </c>
       <c r="O12" s="95"/>
       <c r="P12" s="95">
@@ -7915,11 +7913,11 @@
       </c>
       <c r="S12" s="92">
         <f t="shared" si="10"/>
-        <v>965.58</v>
+        <v>893.76</v>
       </c>
       <c r="T12" s="93">
         <f t="shared" si="4"/>
-        <v>830</v>
+        <v>769</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -9040,7 +9038,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="49">
         <f>SUM(D5:D18)</f>
-        <v>15573.457499999999</v>
+        <v>15473.429999999998</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="49">
@@ -9071,7 +9069,7 @@
       <c r="M19" s="48"/>
       <c r="N19" s="49">
         <f>SUM(N5:N18)</f>
-        <v>1127.8560000000002</v>
+        <v>1005.7600000000002</v>
       </c>
       <c r="O19" s="72"/>
       <c r="P19" s="72"/>
@@ -9079,11 +9077,11 @@
       <c r="R19" s="72"/>
       <c r="S19" s="50">
         <f>SUM(S5:S18)</f>
-        <v>16926.3135</v>
+        <v>16631.065000000002</v>
       </c>
       <c r="T19" s="51">
         <f>SUM(T5:T18)</f>
-        <v>14555</v>
+        <v>14302</v>
       </c>
       <c r="U19" s="52"/>
       <c r="V19" s="52"/>
